--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9BD118-A7AD-4BE2-BD4D-D04D6A599D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B75F9-EF51-4259-938F-765B8277458F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,16 +92,33 @@
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -175,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -208,6 +224,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -499,7 +518,7 @@
   <dimension ref="A1:R150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,24 +537,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -716,8 +735,12 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.3</v>
+      </c>
       <c r="D8" s="2">
         <v>56</v>
       </c>
@@ -768,7 +791,9 @@
       <c r="O9" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P9" s="11"/>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
       <c r="Q9" s="2">
         <v>2.1</v>
       </c>
@@ -796,15 +821,21 @@
       <c r="J10" s="2">
         <v>58</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.2</v>
+      </c>
       <c r="M10" s="2">
         <v>108</v>
       </c>
       <c r="O10" s="10">
         <v>1.2</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="11">
+        <v>3</v>
+      </c>
       <c r="Q10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1167,8 +1198,12 @@
       <c r="G21" s="2">
         <v>19</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1.2</v>
+      </c>
       <c r="J21" s="2">
         <v>69</v>
       </c>
@@ -1222,8 +1257,12 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.3</v>
+      </c>
       <c r="D23" s="2">
         <v>71</v>
       </c>
@@ -1418,8 +1457,12 @@
       <c r="G29" s="2">
         <v>27</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.2</v>
+      </c>
       <c r="J29" s="2">
         <v>77</v>
       </c>
@@ -1529,8 +1572,12 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1.3</v>
+      </c>
       <c r="D33" s="2">
         <v>81</v>
       </c>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B75F9-EF51-4259-938F-765B8277458F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40528D9C-ACE7-4902-9F2A-4D02AA635A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,8 +611,12 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.3</v>
+      </c>
       <c r="D4" s="2">
         <v>52</v>
       </c>
@@ -713,8 +729,12 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.5</v>
+      </c>
       <c r="J7" s="2">
         <v>55</v>
       </c>
@@ -845,8 +865,12 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1.3</v>
+      </c>
       <c r="D11" s="2">
         <v>59</v>
       </c>
@@ -871,7 +895,9 @@
       <c r="O11" s="10">
         <v>1.3</v>
       </c>
-      <c r="P11" s="11"/>
+      <c r="P11" s="11">
+        <v>5</v>
+      </c>
       <c r="Q11" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -907,7 +933,9 @@
       <c r="O12" s="10">
         <v>1.4</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>4</v>
+      </c>
       <c r="Q12" s="8">
         <v>2.4</v>
       </c>
@@ -931,15 +959,21 @@
       <c r="J13" s="2">
         <v>61</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1.4</v>
+      </c>
       <c r="M13" s="2">
         <v>111</v>
       </c>
       <c r="O13" s="10">
         <v>1.5</v>
       </c>
-      <c r="P13" s="11"/>
+      <c r="P13" s="10">
+        <v>4.5</v>
+      </c>
       <c r="Q13" s="8">
         <v>2.5</v>
       </c>
@@ -1017,8 +1051,12 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.4</v>
+      </c>
       <c r="D16" s="2">
         <v>64</v>
       </c>
@@ -1336,8 +1374,12 @@
       <c r="J25" s="2">
         <v>73</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
+      <c r="K25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="12">
+        <v>1.4</v>
+      </c>
       <c r="M25" s="2">
         <v>123</v>
       </c>
@@ -1351,8 +1393,12 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1.4</v>
+      </c>
       <c r="D26" s="2">
         <v>74</v>
       </c>
@@ -1466,8 +1512,12 @@
       <c r="J29" s="2">
         <v>77</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6"/>
+      <c r="K29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1.5</v>
+      </c>
       <c r="M29" s="2">
         <v>127</v>
       </c>
@@ -1623,8 +1673,10 @@
       <c r="J34" s="2">
         <v>82</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
+      <c r="K34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="12"/>
       <c r="M34" s="2">
         <v>132</v>
       </c>
@@ -1705,8 +1757,12 @@
       <c r="G37" s="2">
         <v>35</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1.5</v>
+      </c>
       <c r="J37" s="2">
         <v>85</v>
       </c>
@@ -2065,8 +2121,12 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1.5</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="G50" s="2">
         <v>48</v>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40528D9C-ACE7-4902-9F2A-4D02AA635A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E501A-E281-44EC-A086-933B2035D127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,34 @@
   </si>
   <si>
     <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5-1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 自己的方法代码太长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 超时题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,8 +766,12 @@
       <c r="J7" s="2">
         <v>55</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.8</v>
+      </c>
       <c r="M7" s="2">
         <v>105</v>
       </c>
@@ -993,23 +1025,33 @@
         <v>62</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>12</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.7</v>
+      </c>
       <c r="J14" s="2">
         <v>62</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1.6</v>
+      </c>
       <c r="M14" s="2">
         <v>112</v>
       </c>
       <c r="O14" s="10">
         <v>1.6</v>
       </c>
-      <c r="P14" s="11"/>
+      <c r="P14" s="10">
+        <v>2.5</v>
+      </c>
       <c r="Q14" s="8">
         <v>2.6</v>
       </c>
@@ -1041,7 +1083,9 @@
       <c r="O15" s="10">
         <v>1.7</v>
       </c>
-      <c r="P15" s="11"/>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
       <c r="Q15" s="8">
         <v>2.7</v>
       </c>
@@ -1077,7 +1121,9 @@
       <c r="O16" s="10">
         <v>1.8</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11">
+        <v>5</v>
+      </c>
       <c r="Q16" s="8">
         <v>2.8</v>
       </c>
@@ -1087,8 +1133,12 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1.6</v>
+      </c>
       <c r="D17" s="2">
         <v>65</v>
       </c>
@@ -1133,11 +1183,15 @@
         <v>66</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>16</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1.7</v>
+      </c>
       <c r="J18" s="2">
         <v>66</v>
       </c>
@@ -1437,13 +1491,21 @@
       <c r="G27" s="2">
         <v>25</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1.8</v>
+      </c>
       <c r="J27" s="2">
         <v>75</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="12">
+        <v>1.8</v>
+      </c>
       <c r="M27" s="2">
         <v>125</v>
       </c>
@@ -1544,8 +1606,12 @@
       <c r="G30" s="2">
         <v>28</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1.8</v>
+      </c>
       <c r="J30" s="2">
         <v>78</v>
       </c>
@@ -1670,13 +1736,15 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="2">
+      <c r="J34" s="3">
         <v>82</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="M34" s="2">
         <v>132</v>
       </c>
@@ -1704,8 +1772,12 @@
       <c r="J35" s="2">
         <v>83</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
+      <c r="K35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="12">
+        <v>1.8</v>
+      </c>
       <c r="M35" s="2">
         <v>133</v>
       </c>
@@ -2046,7 +2118,12 @@
       <c r="D47" s="2">
         <v>95</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1.8</v>
+      </c>
       <c r="G47" s="2">
         <v>45</v>
       </c>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E501A-E281-44EC-A086-933B2035D127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF23BF1-E7A4-4CA7-9313-A362C441A2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,109 @@
   </si>
   <si>
     <t>DONE; 超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有两个通不过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10-1.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一个通不过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看的答案，自己方法有错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个段错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;做了好久，没看答案找出了bug；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;排序题，答案比我的简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;改bug费时</t>
+  </si>
+  <si>
+    <t>DONE;做了好久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;自己的方法超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时题，同A93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,8 +851,12 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D7" s="2">
         <v>55</v>
       </c>
@@ -952,8 +1059,12 @@
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J12" s="2">
         <v>60</v>
       </c>
@@ -1163,7 +1274,9 @@
       <c r="O17" s="10">
         <v>1.9</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
       <c r="Q17" s="8">
         <v>2.9</v>
       </c>
@@ -1203,7 +1316,9 @@
       <c r="O18" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P18" s="11"/>
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
       <c r="Q18" s="9">
         <v>2.1</v>
       </c>
@@ -1227,15 +1342,21 @@
       <c r="J19" s="2">
         <v>67</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="M19" s="2">
         <v>117</v>
       </c>
       <c r="O19" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P19" s="11"/>
+      <c r="P19" s="11">
+        <v>12</v>
+      </c>
       <c r="Q19" s="2">
         <v>2.11</v>
       </c>
@@ -1271,7 +1392,9 @@
       <c r="O20" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P20" s="11"/>
+      <c r="P20" s="11">
+        <v>3</v>
+      </c>
       <c r="Q20" s="2">
         <v>2.12</v>
       </c>
@@ -1307,7 +1430,9 @@
       <c r="O21" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P21" s="11"/>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
       <c r="Q21" s="9">
         <v>2.13</v>
       </c>
@@ -1317,8 +1442,12 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="D22" s="2">
         <v>70</v>
       </c>
@@ -1331,15 +1460,21 @@
       <c r="J22" s="2">
         <v>70</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
+      <c r="K22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="M22" s="2">
         <v>120</v>
       </c>
       <c r="O22" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P22" s="11"/>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
       <c r="Q22" s="8">
         <v>2.14</v>
       </c>
@@ -1375,7 +1510,9 @@
       <c r="O23" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P23" s="11"/>
+      <c r="P23" s="10">
+        <v>3.5</v>
+      </c>
       <c r="Q23" s="8">
         <v>2.15</v>
       </c>
@@ -1407,15 +1544,21 @@
       <c r="O24" s="9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="P24" s="11"/>
+      <c r="P24" s="11">
+        <v>2</v>
+      </c>
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="D25" s="2">
         <v>73</v>
       </c>
@@ -1440,7 +1583,9 @@
       <c r="O25" s="8">
         <v>1.17</v>
       </c>
-      <c r="P25" s="11"/>
+      <c r="P25" s="11">
+        <v>3</v>
+      </c>
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -1630,17 +1775,25 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D31" s="2">
         <v>79</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>29</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.17</v>
+      </c>
       <c r="J31" s="2">
         <v>79</v>
       </c>
@@ -1659,8 +1812,12 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="D32" s="2">
         <v>80</v>
       </c>
@@ -1670,11 +1827,15 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>80</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
+      <c r="K32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="M32" s="2">
         <v>130</v>
       </c>
@@ -1755,20 +1916,28 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D35" s="2">
         <v>83</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>33</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1.1200000000000001</v>
+      </c>
       <c r="J35" s="2">
         <v>83</v>
       </c>
@@ -1805,8 +1974,12 @@
       <c r="J36" s="2">
         <v>84</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
+      <c r="K36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="M36" s="2">
         <v>134</v>
       </c>
@@ -1820,8 +1993,12 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1.17</v>
+      </c>
       <c r="D37" s="2">
         <v>85</v>
       </c>
@@ -1838,8 +2015,12 @@
       <c r="J37" s="2">
         <v>85</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
+      <c r="K37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="M37" s="2">
         <v>135</v>
       </c>
@@ -1903,8 +2084,12 @@
       <c r="G39" s="2">
         <v>37</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="J39" s="2">
         <v>87</v>
       </c>
@@ -1923,17 +2108,25 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D40" s="2">
         <v>88</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <v>38</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J40" s="2">
         <v>88</v>
       </c>
@@ -1949,8 +2142,12 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D41" s="2">
         <v>89</v>
       </c>
@@ -1963,8 +2160,12 @@
       <c r="J41" s="2">
         <v>89</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="6"/>
+      <c r="K41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1.17</v>
+      </c>
       <c r="M41" s="2">
         <v>139</v>
       </c>
@@ -1975,8 +2176,12 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1.18</v>
+      </c>
       <c r="D42" s="2">
         <v>90</v>
       </c>
@@ -1990,7 +2195,9 @@
         <v>90</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="M42" s="2">
         <v>140</v>
       </c>
@@ -2014,8 +2221,12 @@
       <c r="G43" s="2">
         <v>41</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="6"/>
+      <c r="H43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J43" s="2">
         <v>91</v>
       </c>
@@ -2031,8 +2242,12 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D44" s="2">
         <v>92</v>
       </c>
@@ -2049,8 +2264,12 @@
       <c r="J44" s="2">
         <v>92</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
+      <c r="K44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="M44" s="2">
         <v>142</v>
       </c>
@@ -2061,8 +2280,12 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="D45" s="2">
         <v>93</v>
       </c>
@@ -2072,11 +2295,15 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="2">
+      <c r="J45" s="3">
         <v>93</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
+      <c r="K45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="6">
+        <v>1.18</v>
+      </c>
       <c r="M45" s="2">
         <v>143</v>
       </c>
@@ -2096,8 +2323,12 @@
       <c r="G46" s="2">
         <v>44</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="6"/>
+      <c r="H46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="J46" s="2">
         <v>94</v>
       </c>
@@ -2132,8 +2363,12 @@
       <c r="J47" s="2">
         <v>95</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="M47" s="2">
         <v>145</v>
       </c>
@@ -2175,8 +2410,12 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="G49" s="2">
         <v>47</v>
@@ -2208,8 +2447,12 @@
       <c r="G50" s="2">
         <v>48</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="6"/>
+      <c r="H50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J50" s="2">
         <v>98</v>
       </c>
@@ -2252,8 +2495,12 @@
       <c r="G52" s="2">
         <v>50</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="6"/>
+      <c r="H52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J52" s="2">
         <v>100</v>
       </c>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF23BF1-E7A4-4CA7-9313-A362C441A2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A59F0-C7C3-4713-B71B-5E7883A9CA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,58 @@
   </si>
   <si>
     <t>DONE;超时题，同A93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种方法都有一个段错误，几小时后解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同A69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的方法有误，第二天解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.20-1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个用例通不过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,7 +731,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -689,7 +741,7 @@
       </c>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
@@ -699,7 +751,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -727,18 +779,24 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="2">
+      <c r="M3" s="7">
         <v>101</v>
       </c>
-      <c r="O3" s="9">
+      <c r="N3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="Q3" s="9">
         <v>12.27</v>
       </c>
-      <c r="P3" s="11">
+      <c r="R3" s="11">
         <v>1</v>
       </c>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -769,20 +827,24 @@
       <c r="M4" s="2">
         <v>102</v>
       </c>
-      <c r="O4" s="9">
+      <c r="Q4" s="9">
         <v>12.28</v>
       </c>
-      <c r="P4" s="11">
+      <c r="R4" s="11">
         <v>3</v>
       </c>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.19</v>
+      </c>
       <c r="D5" s="2">
         <v>53</v>
       </c>
@@ -804,15 +866,15 @@
       <c r="M5" s="2">
         <v>103</v>
       </c>
-      <c r="O5" s="9">
+      <c r="Q5" s="9">
         <v>12.29</v>
       </c>
-      <c r="P5" s="11">
+      <c r="R5" s="11">
         <v>8</v>
       </c>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -839,15 +901,21 @@
       <c r="M6" s="2">
         <v>104</v>
       </c>
-      <c r="O6" s="9">
+      <c r="N6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="Q6" s="9">
         <v>12.3</v>
       </c>
-      <c r="P6" s="11">
+      <c r="R6" s="11">
         <v>8</v>
       </c>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -882,15 +950,15 @@
       <c r="M7" s="2">
         <v>105</v>
       </c>
-      <c r="O7" s="9">
+      <c r="Q7" s="9">
         <v>12.31</v>
       </c>
-      <c r="P7" s="11">
+      <c r="R7" s="11">
         <v>4</v>
       </c>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -921,15 +989,19 @@
       <c r="M8" s="2">
         <v>106</v>
       </c>
-      <c r="P8" s="11"/>
       <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.23</v>
+      </c>
       <c r="D9" s="2">
         <v>57</v>
       </c>
@@ -947,18 +1019,18 @@
       <c r="M9" s="2">
         <v>107</v>
       </c>
-      <c r="O9" s="10">
+      <c r="Q9" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P9" s="11">
+      <c r="R9" s="11">
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>2.1</v>
       </c>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -975,8 +1047,12 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.21</v>
+      </c>
       <c r="J10" s="2">
         <v>58</v>
       </c>
@@ -989,18 +1065,18 @@
       <c r="M10" s="2">
         <v>108</v>
       </c>
-      <c r="O10" s="10">
+      <c r="Q10" s="10">
         <v>1.2</v>
       </c>
-      <c r="P10" s="11">
+      <c r="R10" s="11">
         <v>3</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1031,18 +1107,18 @@
       <c r="M11" s="2">
         <v>109</v>
       </c>
-      <c r="O11" s="10">
+      <c r="Q11" s="10">
         <v>1.3</v>
       </c>
-      <c r="P11" s="11">
+      <c r="R11" s="11">
         <v>5</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="S11" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1073,18 +1149,18 @@
       <c r="M12" s="2">
         <v>110</v>
       </c>
-      <c r="O12" s="10">
+      <c r="Q12" s="10">
         <v>1.4</v>
       </c>
-      <c r="P12" s="11">
+      <c r="R12" s="11">
         <v>4</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="S12" s="8">
         <v>2.4</v>
       </c>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1111,18 +1187,18 @@
       <c r="M13" s="2">
         <v>111</v>
       </c>
-      <c r="O13" s="10">
+      <c r="Q13" s="10">
         <v>1.5</v>
       </c>
-      <c r="P13" s="10">
+      <c r="R13" s="10">
         <v>4.5</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="S13" s="8">
         <v>2.5</v>
       </c>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1157,23 +1233,27 @@
       <c r="M14" s="2">
         <v>112</v>
       </c>
-      <c r="O14" s="10">
+      <c r="Q14" s="10">
         <v>1.6</v>
       </c>
-      <c r="P14" s="10">
+      <c r="R14" s="10">
         <v>2.5</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="S14" s="8">
         <v>2.6</v>
       </c>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.23</v>
+      </c>
       <c r="D15" s="2">
         <v>63</v>
       </c>
@@ -1191,18 +1271,18 @@
       <c r="M15" s="2">
         <v>113</v>
       </c>
-      <c r="O15" s="10">
+      <c r="Q15" s="10">
         <v>1.7</v>
       </c>
-      <c r="P15" s="11">
+      <c r="R15" s="11">
         <v>1</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="S15" s="8">
         <v>2.7</v>
       </c>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1229,18 +1309,18 @@
       <c r="M16" s="2">
         <v>114</v>
       </c>
-      <c r="O16" s="10">
+      <c r="Q16" s="10">
         <v>1.8</v>
       </c>
-      <c r="P16" s="11">
+      <c r="R16" s="11">
         <v>5</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="S16" s="8">
         <v>2.8</v>
       </c>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1271,18 +1351,18 @@
       <c r="M17" s="2">
         <v>115</v>
       </c>
-      <c r="O17" s="10">
+      <c r="Q17" s="10">
         <v>1.9</v>
       </c>
-      <c r="P17" s="11">
+      <c r="R17" s="11">
         <v>0</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="S17" s="8">
         <v>2.9</v>
       </c>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1313,18 +1393,18 @@
       <c r="M18" s="2">
         <v>116</v>
       </c>
-      <c r="O18" s="9">
+      <c r="Q18" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P18" s="11">
+      <c r="R18" s="11">
         <v>1</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="S18" s="9">
         <v>2.1</v>
       </c>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1351,18 +1431,18 @@
       <c r="M19" s="2">
         <v>117</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P19" s="11">
+      <c r="R19" s="11">
         <v>12</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>2.11</v>
       </c>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1389,23 +1469,27 @@
       <c r="M20" s="2">
         <v>118</v>
       </c>
-      <c r="O20" s="9">
+      <c r="Q20" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P20" s="11">
+      <c r="R20" s="11">
         <v>3</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>2.12</v>
       </c>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.2</v>
+      </c>
       <c r="D21" s="2">
         <v>69</v>
       </c>
@@ -1419,26 +1503,30 @@
       <c r="I21" s="12">
         <v>1.2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="7">
         <v>69</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="M21" s="2">
         <v>119</v>
       </c>
-      <c r="O21" s="8">
+      <c r="Q21" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P21" s="11">
+      <c r="R21" s="11">
         <v>1</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="S21" s="9">
         <v>2.13</v>
       </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1469,18 +1557,18 @@
       <c r="M22" s="2">
         <v>120</v>
       </c>
-      <c r="O22" s="9">
+      <c r="Q22" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P22" s="11">
+      <c r="R22" s="11">
         <v>0</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="S22" s="8">
         <v>2.14</v>
       </c>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1507,18 +1595,18 @@
       <c r="M23" s="2">
         <v>121</v>
       </c>
-      <c r="O23" s="8">
+      <c r="Q23" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P23" s="10">
+      <c r="R23" s="10">
         <v>3.5</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="S23" s="8">
         <v>2.15</v>
       </c>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1541,15 +1629,15 @@
       <c r="M24" s="2">
         <v>122</v>
       </c>
-      <c r="O24" s="9">
+      <c r="Q24" s="9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="P24" s="11">
+      <c r="R24" s="11">
         <v>2</v>
       </c>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1580,15 +1668,15 @@
       <c r="M25" s="2">
         <v>123</v>
       </c>
-      <c r="O25" s="8">
+      <c r="Q25" s="8">
         <v>1.17</v>
       </c>
-      <c r="P25" s="11">
+      <c r="R25" s="11">
         <v>3</v>
       </c>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1615,13 +1703,15 @@
       <c r="M26" s="2">
         <v>124</v>
       </c>
-      <c r="O26" s="9">
+      <c r="Q26" s="9">
         <v>1.18</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="11">
+        <v>4</v>
+      </c>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1654,13 +1744,15 @@
       <c r="M27" s="2">
         <v>125</v>
       </c>
-      <c r="O27" s="8">
+      <c r="Q27" s="8">
         <v>1.19</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="11">
+        <v>1</v>
+      </c>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1687,13 +1779,15 @@
       <c r="M28" s="2">
         <v>126</v>
       </c>
-      <c r="O28" s="9">
+      <c r="Q28" s="9">
         <v>1.2</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R28" s="11">
+        <v>1</v>
+      </c>
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1728,13 +1822,15 @@
       <c r="M29" s="2">
         <v>127</v>
       </c>
-      <c r="O29" s="8">
+      <c r="Q29" s="8">
         <v>1.21</v>
       </c>
-      <c r="P29" s="11"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1765,13 +1861,15 @@
       <c r="M30" s="2">
         <v>128</v>
       </c>
-      <c r="O30" s="9">
+      <c r="Q30" s="9">
         <v>1.22</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R30" s="11">
+        <v>1</v>
+      </c>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1802,13 +1900,13 @@
       <c r="M31" s="2">
         <v>129</v>
       </c>
-      <c r="O31" s="8">
+      <c r="Q31" s="8">
         <v>1.23</v>
       </c>
-      <c r="P31" s="11"/>
       <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1839,13 +1937,13 @@
       <c r="M32" s="2">
         <v>130</v>
       </c>
-      <c r="O32" s="9">
+      <c r="Q32" s="9">
         <v>1.24</v>
       </c>
-      <c r="P32" s="11"/>
       <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1867,18 +1965,22 @@
       <c r="J33" s="2">
         <v>81</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="6"/>
+      <c r="K33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1.22</v>
+      </c>
       <c r="M33" s="2">
         <v>131</v>
       </c>
-      <c r="O33" s="8">
+      <c r="Q33" s="8">
         <v>1.25</v>
       </c>
-      <c r="P33" s="11"/>
       <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1909,13 +2011,13 @@
       <c r="M34" s="2">
         <v>132</v>
       </c>
-      <c r="O34" s="9">
+      <c r="Q34" s="9">
         <v>1.26</v>
       </c>
-      <c r="P34" s="11"/>
       <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1950,13 +2052,13 @@
       <c r="M35" s="2">
         <v>133</v>
       </c>
-      <c r="O35" s="8">
+      <c r="Q35" s="8">
         <v>1.27</v>
       </c>
-      <c r="P35" s="11"/>
       <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T35" s="11"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1983,13 +2085,13 @@
       <c r="M36" s="2">
         <v>134</v>
       </c>
-      <c r="O36" s="9">
+      <c r="Q36" s="9">
         <v>1.28</v>
       </c>
-      <c r="P36" s="11"/>
       <c r="R36" s="11"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2024,13 +2126,13 @@
       <c r="M37" s="2">
         <v>135</v>
       </c>
-      <c r="O37" s="8">
+      <c r="Q37" s="8">
         <v>1.29</v>
       </c>
-      <c r="P37" s="11"/>
       <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2061,13 +2163,13 @@
       <c r="M38" s="2">
         <v>136</v>
       </c>
-      <c r="O38" s="9">
+      <c r="Q38" s="9">
         <v>1.3</v>
       </c>
-      <c r="P38" s="11"/>
       <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2098,13 +2200,13 @@
       <c r="M39" s="2">
         <v>137</v>
       </c>
-      <c r="O39" s="8">
+      <c r="Q39" s="8">
         <v>1.31</v>
       </c>
-      <c r="P39" s="11"/>
       <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2130,15 +2232,19 @@
       <c r="J40" s="2">
         <v>88</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="6"/>
+      <c r="K40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1.23</v>
+      </c>
       <c r="M40" s="2">
         <v>138</v>
       </c>
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2172,7 +2278,7 @@
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2204,7 +2310,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2238,7 +2344,7 @@
       <c r="P43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2276,7 +2382,7 @@
       <c r="P44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2310,7 +2416,7 @@
       <c r="P45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2340,12 +2446,16 @@
       <c r="P46" s="11"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.18</v>
+      </c>
       <c r="D47" s="2">
         <v>95</v>
       </c>
@@ -2375,7 +2485,7 @@
       <c r="P47" s="11"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2468,14 +2578,22 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1.21</v>
+      </c>
       <c r="E51" s="6"/>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>49</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="6"/>
+      <c r="H51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1.21</v>
+      </c>
       <c r="J51" s="2">
         <v>99</v>
       </c>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A59F0-C7C3-4713-B71B-5E7883A9CA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228BEE8-D9CD-424E-8187-B6C55209C85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +53,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前25题在7-8月份做过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;数字范围题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 自己的方法有误没找出, 后12.30终于找出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; string直接比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5-1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 自己的方法代码太长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>没做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前25题在7-8月份做过</t>
+    <t>DONE; 超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有两个通不过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -69,11 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE;数字范围题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE; 自己的方法有误没找出, 后12.30终于找出</t>
+    <t>1.10-1.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,7 +161,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE; string直接比较</t>
+    <t>还有一个通不过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 超时题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,10 +177,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DONE：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看的答案，自己方法有错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一个段错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +217,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DONE;做了好久，没看答案找出了bug；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;排序题，答案比我的简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;改bug费时</t>
+  </si>
+  <si>
+    <t>DONE;做了好久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DONE;自己的方法超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时题，同A93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种方法都有一个段错误，几小时后解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,11 +260,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5-1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE; 自己的方法代码太长</t>
+    <t>同A69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的方法有误，第二天解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,11 +272,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没做出</t>
+    <t>1.20-1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个用例通不过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,31 +288,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE; 超时题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有两个通不过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE;超时题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.10-1.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还有一个通不过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE; 超时题</t>
+    <t>DONE;质数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,34 +304,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE;超时题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>最后一个没通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;看的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看的答案，自己方法有错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个段错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,26 +328,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;同B95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;DFS遍历堆;看的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE;做了好久，没看答案找出了bug；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE;排序题，答案比我的简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE;改bug费时</t>
-  </si>
-  <si>
-    <t>DONE;做了好久</t>
+    <t>还有一个用例通不过，第二天过了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5-2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有2个通不过；做了好几天最后还是抄的答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,15 +364,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE;自己的方法超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE;超时题，同A93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两种方法都有一个段错误，几小时后解决了</t>
+    <t>2.8-2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7-2.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,30 +380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同A69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己的方法有误，第二天解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.20-1.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一个用例通不过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,7 +392,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE;质数</t>
+    <t>之前写的有问题; 后终于解决了，但还有一个超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,6 +522,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,11 +821,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
@@ -727,29 +836,29 @@
     <col min="9" max="10" width="9" style="2"/>
     <col min="11" max="11" width="16.875" style="2" customWidth="1"/>
     <col min="12" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -777,13 +886,17 @@
       <c r="J3" s="2">
         <v>51</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2.1</v>
+      </c>
       <c r="M3" s="7">
         <v>101</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O3" s="2">
         <v>1.18</v>
@@ -801,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="12">
         <v>1.3</v>
@@ -814,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="6">
         <v>12.28</v>
@@ -840,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6">
         <v>1.19</v>
@@ -879,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>12.3</v>
@@ -896,13 +1009,17 @@
       <c r="J6" s="2">
         <v>54</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2.9</v>
+      </c>
       <c r="M6" s="2">
         <v>104</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="2">
         <v>1.21</v>
@@ -920,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6">
         <v>1.1100000000000001</v>
@@ -933,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="12">
         <v>1.5</v>
@@ -942,7 +1059,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="12">
         <v>1.8</v>
@@ -963,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12">
         <v>1.3</v>
@@ -976,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="6">
         <v>12.3</v>
@@ -984,8 +1101,12 @@
       <c r="J8" s="2">
         <v>56</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.1</v>
+      </c>
       <c r="M8" s="2">
         <v>106</v>
       </c>
@@ -997,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6">
         <v>1.23</v>
@@ -1028,14 +1149,16 @@
       <c r="S9" s="2">
         <v>2.1</v>
       </c>
-      <c r="T9" s="11"/>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6">
         <v>12.29</v>
@@ -1048,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="6">
         <v>1.21</v>
@@ -1057,7 +1180,7 @@
         <v>58</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="12">
         <v>1.2</v>
@@ -1074,14 +1197,16 @@
       <c r="S10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T10" s="11"/>
+      <c r="T10" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12">
         <v>1.3</v>
@@ -1094,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" s="6">
         <v>12.3</v>
@@ -1102,8 +1227,12 @@
       <c r="J11" s="2">
         <v>59</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1.3</v>
+      </c>
       <c r="M11" s="2">
         <v>109</v>
       </c>
@@ -1116,14 +1245,16 @@
       <c r="S11" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T11" s="11"/>
+      <c r="T11" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
         <v>12.3</v>
@@ -1136,16 +1267,20 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>60</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="M12" s="2">
         <v>110</v>
       </c>
@@ -1158,7 +1293,9 @@
       <c r="S12" s="8">
         <v>2.4</v>
       </c>
-      <c r="T12" s="11"/>
+      <c r="T12" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1179,7 +1316,7 @@
         <v>61</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="12">
         <v>1.4</v>
@@ -1196,14 +1333,16 @@
       <c r="S13" s="8">
         <v>2.5</v>
       </c>
-      <c r="T13" s="11"/>
+      <c r="T13" s="10">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6">
         <v>12.29</v>
@@ -1216,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="12">
         <v>1.7</v>
@@ -1225,7 +1364,7 @@
         <v>62</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="12">
         <v>1.6</v>
@@ -1242,14 +1381,16 @@
       <c r="S14" s="8">
         <v>2.6</v>
       </c>
-      <c r="T14" s="11"/>
+      <c r="T14" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6">
         <v>1.23</v>
@@ -1266,8 +1407,12 @@
       <c r="J15" s="2">
         <v>63</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="12">
+        <v>2.6</v>
+      </c>
       <c r="M15" s="2">
         <v>113</v>
       </c>
@@ -1280,14 +1425,16 @@
       <c r="S15" s="8">
         <v>2.7</v>
       </c>
-      <c r="T15" s="11"/>
+      <c r="T15" s="10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12">
         <v>1.4</v>
@@ -1318,14 +1465,16 @@
       <c r="S16" s="8">
         <v>2.8</v>
       </c>
-      <c r="T16" s="11"/>
+      <c r="T16" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="12">
         <v>1.6</v>
@@ -1337,13 +1486,17 @@
       <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.24</v>
+      </c>
       <c r="J17" s="2">
         <v>65</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" s="6">
         <v>12.3</v>
@@ -1360,7 +1513,9 @@
       <c r="S17" s="8">
         <v>2.9</v>
       </c>
-      <c r="T17" s="11"/>
+      <c r="T17" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1380,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="12">
         <v>1.7</v>
@@ -1402,14 +1557,20 @@
       <c r="S18" s="9">
         <v>2.1</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="T18" s="10">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.3</v>
+      </c>
       <c r="D19" s="2">
         <v>67</v>
       </c>
@@ -1423,7 +1584,7 @@
         <v>67</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L19" s="6">
         <v>1.1499999999999999</v>
@@ -1447,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6">
         <v>12.29</v>
@@ -1485,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="6">
         <v>1.2</v>
@@ -1498,7 +1659,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="12">
         <v>1.2</v>
@@ -1507,10 +1668,10 @@
         <v>69</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="2">
         <v>119</v>
@@ -1531,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6">
         <v>1.1200000000000001</v>
@@ -1549,7 +1710,7 @@
         <v>70</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" s="6">
         <v>1.1200000000000001</v>
@@ -1573,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="12">
         <v>1.3</v>
@@ -1590,8 +1751,12 @@
       <c r="J23" s="2">
         <v>71</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
+      <c r="K23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2.9</v>
+      </c>
       <c r="M23" s="2">
         <v>121</v>
       </c>
@@ -1619,8 +1784,12 @@
       <c r="G24" s="2">
         <v>22</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="12">
+        <v>2.9</v>
+      </c>
       <c r="J24" s="2">
         <v>72</v>
       </c>
@@ -1642,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6">
         <v>1.1200000000000001</v>
@@ -1654,13 +1823,17 @@
       <c r="G25" s="2">
         <v>23</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1.31</v>
+      </c>
       <c r="J25" s="2">
         <v>73</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="12">
         <v>1.4</v>
@@ -1681,7 +1854,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="12">
         <v>1.4</v>
@@ -1693,13 +1866,21 @@
       <c r="G26" s="2">
         <v>24</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="J26" s="2">
         <v>74</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
+      <c r="K26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="6">
+        <v>2.1</v>
+      </c>
       <c r="M26" s="2">
         <v>124</v>
       </c>
@@ -1716,9 +1897,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D27" s="2">
         <v>75</v>
       </c>
@@ -1727,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" s="12">
         <v>1.8</v>
@@ -1736,7 +1919,7 @@
         <v>75</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L27" s="12">
         <v>1.8</v>
@@ -1757,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="6">
         <v>12.29</v>
@@ -1792,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <v>12.31</v>
@@ -1805,7 +1988,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="12">
         <v>1.2</v>
@@ -1814,7 +1997,7 @@
         <v>77</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="12">
         <v>1.5</v>
@@ -1835,7 +2018,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="6">
         <v>12.3</v>
@@ -1848,7 +2031,7 @@
         <v>28</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I30" s="12">
         <v>1.8</v>
@@ -1856,8 +2039,12 @@
       <c r="J30" s="2">
         <v>78</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
+      <c r="K30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1.27</v>
+      </c>
       <c r="M30" s="2">
         <v>128</v>
       </c>
@@ -1874,7 +2061,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6">
         <v>1.1100000000000001</v>
@@ -1887,7 +2074,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" s="6">
         <v>1.17</v>
@@ -1903,7 +2090,9 @@
       <c r="Q31" s="8">
         <v>1.23</v>
       </c>
-      <c r="R31" s="11"/>
+      <c r="R31" s="11">
+        <v>3</v>
+      </c>
       <c r="T31" s="11"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -1911,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="6">
         <v>1.1499999999999999</v>
@@ -1929,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" s="6">
         <v>1.1000000000000001</v>
@@ -1940,7 +2129,9 @@
       <c r="Q32" s="9">
         <v>1.24</v>
       </c>
-      <c r="R32" s="11"/>
+      <c r="R32" s="11">
+        <v>1</v>
+      </c>
       <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -1948,7 +2139,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="12">
         <v>1.3</v>
@@ -1966,7 +2157,7 @@
         <v>81</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L33" s="6">
         <v>1.22</v>
@@ -1977,7 +2168,9 @@
       <c r="Q33" s="8">
         <v>1.25</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="11">
+        <v>0</v>
+      </c>
       <c r="T33" s="11"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -1985,7 +2178,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="6">
         <v>12.3</v>
@@ -1997,16 +2190,20 @@
       <c r="G34" s="2">
         <v>32</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2.11</v>
+      </c>
       <c r="J34" s="3">
         <v>82</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M34" s="2">
         <v>132</v>
@@ -2014,7 +2211,9 @@
       <c r="Q34" s="9">
         <v>1.26</v>
       </c>
-      <c r="R34" s="11"/>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
       <c r="T34" s="11"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -2022,7 +2221,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="6">
         <v>1.1100000000000001</v>
@@ -2035,7 +2234,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I35" s="6">
         <v>1.1200000000000001</v>
@@ -2044,7 +2243,7 @@
         <v>83</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L35" s="12">
         <v>1.8</v>
@@ -2055,7 +2254,9 @@
       <c r="Q35" s="8">
         <v>1.27</v>
       </c>
-      <c r="R35" s="11"/>
+      <c r="R35" s="11">
+        <v>1</v>
+      </c>
       <c r="T35" s="11"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -2077,7 +2278,7 @@
         <v>84</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L36" s="6">
         <v>1.1100000000000001</v>
@@ -2088,7 +2289,9 @@
       <c r="Q36" s="9">
         <v>1.28</v>
       </c>
-      <c r="R36" s="11"/>
+      <c r="R36" s="10">
+        <v>0.5</v>
+      </c>
       <c r="T36" s="11"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -2096,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6">
         <v>1.17</v>
@@ -2109,7 +2312,7 @@
         <v>35</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="12">
         <v>1.5</v>
@@ -2118,7 +2321,7 @@
         <v>85</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L37" s="6">
         <v>1.1499999999999999</v>
@@ -2129,7 +2332,9 @@
       <c r="Q37" s="8">
         <v>1.29</v>
       </c>
-      <c r="R37" s="11"/>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
       <c r="T37" s="11"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -2137,7 +2342,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="6">
         <v>12.31</v>
@@ -2150,7 +2355,7 @@
         <v>36</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="6">
         <v>12.31</v>
@@ -2166,7 +2371,9 @@
       <c r="Q38" s="9">
         <v>1.3</v>
       </c>
-      <c r="R38" s="11"/>
+      <c r="R38" s="11">
+        <v>2</v>
+      </c>
       <c r="T38" s="11"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -2174,7 +2381,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="6">
         <v>12.31</v>
@@ -2187,7 +2394,7 @@
         <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" s="6">
         <v>1.1299999999999999</v>
@@ -2203,7 +2410,9 @@
       <c r="Q39" s="8">
         <v>1.31</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="11">
+        <v>1</v>
+      </c>
       <c r="T39" s="11"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -2211,7 +2420,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="6">
         <v>1.1100000000000001</v>
@@ -2224,7 +2433,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" s="6">
         <v>1.1499999999999999</v>
@@ -2233,7 +2442,7 @@
         <v>88</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="6">
         <v>1.23</v>
@@ -2249,7 +2458,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="6">
         <v>1.1100000000000001</v>
@@ -2261,13 +2470,17 @@
       <c r="G41" s="2">
         <v>39</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="12">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="J41" s="2">
         <v>89</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L41" s="6">
         <v>1.17</v>
@@ -2275,6 +2488,7 @@
       <c r="M41" s="2">
         <v>139</v>
       </c>
+      <c r="N41" s="5"/>
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
@@ -2283,7 +2497,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6">
         <v>1.18</v>
@@ -2302,11 +2516,12 @@
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M42" s="2">
         <v>140</v>
       </c>
+      <c r="N42" s="5"/>
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
@@ -2315,7 +2530,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="6">
         <v>12.3</v>
@@ -2328,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="6">
         <v>1.1100000000000001</v>
@@ -2341,6 +2556,7 @@
       <c r="M43" s="2">
         <v>141</v>
       </c>
+      <c r="N43" s="5"/>
       <c r="P43" s="11"/>
       <c r="R43" s="11"/>
     </row>
@@ -2349,7 +2565,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="6">
         <v>1.1100000000000001</v>
@@ -2362,7 +2578,7 @@
         <v>42</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" s="6">
         <v>12.29</v>
@@ -2371,7 +2587,7 @@
         <v>92</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L44" s="6">
         <v>1.1100000000000001</v>
@@ -2379,6 +2595,7 @@
       <c r="M44" s="2">
         <v>142</v>
       </c>
+      <c r="N44" s="5"/>
       <c r="P44" s="11"/>
       <c r="R44" s="11"/>
     </row>
@@ -2387,7 +2604,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="6">
         <v>1.1100000000000001</v>
@@ -2405,7 +2622,7 @@
         <v>93</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L45" s="6">
         <v>1.18</v>
@@ -2413,6 +2630,7 @@
       <c r="M45" s="2">
         <v>143</v>
       </c>
+      <c r="N45" s="5"/>
       <c r="P45" s="11"/>
       <c r="R45" s="11"/>
     </row>
@@ -2420,8 +2638,12 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2.9</v>
+      </c>
       <c r="D46" s="2">
         <v>94</v>
       </c>
@@ -2430,7 +2652,7 @@
         <v>44</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" s="6">
         <v>1.1599999999999999</v>
@@ -2443,6 +2665,7 @@
       <c r="M46" s="2">
         <v>144</v>
       </c>
+      <c r="N46" s="5"/>
       <c r="P46" s="11"/>
       <c r="R46" s="11"/>
     </row>
@@ -2451,7 +2674,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="6">
         <v>1.18</v>
@@ -2460,7 +2683,7 @@
         <v>95</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="12">
         <v>1.8</v>
@@ -2474,14 +2697,15 @@
         <v>95</v>
       </c>
       <c r="K47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="M47" s="2">
         <v>145</v>
       </c>
+      <c r="N47" s="5"/>
       <c r="P47" s="11"/>
       <c r="R47" s="11"/>
     </row>
@@ -2490,7 +2714,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="6">
         <v>12.29</v>
@@ -2500,19 +2724,24 @@
         <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48" s="6">
         <v>12.29</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="4">
         <v>96</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="6"/>
+      <c r="K48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="6">
+        <v>1.28</v>
+      </c>
       <c r="M48" s="2">
         <v>146</v>
       </c>
+      <c r="N48" s="5"/>
       <c r="P48" s="11"/>
       <c r="R48" s="11"/>
     </row>
@@ -2521,7 +2750,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="6">
         <v>1.1100000000000001</v>
@@ -2530,8 +2759,12 @@
       <c r="G49" s="2">
         <v>47</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="6"/>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="12">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="J49" s="2">
         <v>97</v>
       </c>
@@ -2540,6 +2773,7 @@
       <c r="M49" s="2">
         <v>147</v>
       </c>
+      <c r="N49" s="5"/>
       <c r="P49" s="11"/>
       <c r="R49" s="11"/>
     </row>
@@ -2548,7 +2782,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="12">
         <v>1.5</v>
@@ -2558,7 +2792,7 @@
         <v>48</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="6">
         <v>1.1100000000000001</v>
@@ -2571,6 +2805,7 @@
       <c r="M50" s="2">
         <v>148</v>
       </c>
+      <c r="N50" s="5"/>
       <c r="P50" s="11"/>
       <c r="R50" s="11"/>
     </row>
@@ -2579,7 +2814,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="6">
         <v>1.21</v>
@@ -2589,7 +2824,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I51" s="6">
         <v>1.21</v>
@@ -2602,6 +2837,7 @@
       <c r="M51" s="2">
         <v>149</v>
       </c>
+      <c r="N51" s="5"/>
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -2614,7 +2850,7 @@
         <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I52" s="6">
         <v>1.1100000000000001</v>
@@ -2622,17 +2858,35 @@
       <c r="J52" s="2">
         <v>100</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="6"/>
+      <c r="K52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="M52" s="2">
         <v>150</v>
       </c>
+      <c r="N52" s="5"/>
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M53" s="2">
+        <v>151</v>
+      </c>
+      <c r="N53" s="5"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>152</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -2645,9 +2899,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
+      <c r="M55" s="13">
+        <v>153</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O55" s="10">
+        <v>2.5</v>
+      </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="11"/>
@@ -2662,9 +2922,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
+      <c r="M56" s="13">
+        <v>154</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O56" s="10">
+        <v>2.5</v>
+      </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="11"/>
@@ -2679,9 +2945,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
+      <c r="M57" s="3">
+        <v>155</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O57" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="11"/>
@@ -2697,7 +2969,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
+      <c r="N58" s="14"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228BEE8-D9CD-424E-8187-B6C55209C85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E323B1-EA62-4268-BBDE-BB32DF042471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="134">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;排序题，答案比我的简单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +398,170 @@
   <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 看的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 看的答案还纠错了很久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 自己先写了一个后发现理解有错后看的答案修改的，后一个小错误（多写了两个等号）检查了几小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;没看答案做了很久做出来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;没看懂题直接看的答案，后在答案的基础上改了一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 类似A121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 做完后有三个超时，减枝后还有一个超时；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;类似A90, 题目看懂就花了半天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;类似A90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只通过了2个测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;看的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;看的答案还出了好几个错，检查了不少时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 抄的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一个测试通不过，后在研友帮助下找出了Bug3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄的答案，还有一个错；后问了研友解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;用DFS做还有一个超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 做了好久，理解题意有困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一晚上还是有错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5+1</t>
+  </si>
+  <si>
+    <t>0.5+1</t>
+  </si>
+  <si>
+    <t>0.5.5+1</t>
+  </si>
+  <si>
+    <t>2.5+1</t>
   </si>
 </sst>
 </file>
@@ -415,7 +575,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +625,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -486,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -531,6 +699,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,24 +1021,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -887,7 +1067,7 @@
         <v>51</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="6">
         <v>2.1</v>
@@ -895,8 +1075,8 @@
       <c r="M3" s="7">
         <v>101</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>54</v>
+      <c r="N3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="O3" s="2">
         <v>1.18</v>
@@ -935,10 +1115,20 @@
       <c r="J4" s="2">
         <v>52</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2.11</v>
+      </c>
       <c r="M4" s="2">
         <v>102</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.14</v>
       </c>
       <c r="Q4" s="9">
         <v>12.28</v>
@@ -953,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6">
         <v>1.19</v>
@@ -974,10 +1164,20 @@
       <c r="J5" s="2">
         <v>53</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="2">
+      <c r="K5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="M5" s="3">
         <v>103</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2.11</v>
       </c>
       <c r="Q5" s="9">
         <v>12.29</v>
@@ -1004,13 +1204,17 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2.15</v>
+      </c>
       <c r="J6" s="2">
         <v>54</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="12">
         <v>2.9</v>
@@ -1018,8 +1222,8 @@
       <c r="M6" s="2">
         <v>104</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>59</v>
+      <c r="N6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="O6" s="2">
         <v>1.21</v>
@@ -1067,6 +1271,7 @@
       <c r="M7" s="2">
         <v>105</v>
       </c>
+      <c r="N7" s="1"/>
       <c r="Q7" s="9">
         <v>12.31</v>
       </c>
@@ -1102,13 +1307,19 @@
         <v>56</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="6">
         <v>2.1</v>
       </c>
       <c r="M8" s="2">
         <v>106</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2.15</v>
       </c>
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
@@ -1118,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6">
         <v>1.23</v>
@@ -1137,8 +1348,14 @@
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="18">
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q9" s="10">
         <v>1.1000000000000001</v>
@@ -1171,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6">
         <v>1.21</v>
@@ -1188,6 +1405,7 @@
       <c r="M10" s="2">
         <v>108</v>
       </c>
+      <c r="N10" s="1"/>
       <c r="Q10" s="10">
         <v>1.2</v>
       </c>
@@ -1228,7 +1446,7 @@
         <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="6">
         <v>1.3</v>
@@ -1236,6 +1454,7 @@
       <c r="M11" s="2">
         <v>109</v>
       </c>
+      <c r="N11" s="1"/>
       <c r="Q11" s="10">
         <v>1.3</v>
       </c>
@@ -1246,7 +1465,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1276,14 +1495,15 @@
         <v>60</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2">
         <v>110</v>
       </c>
+      <c r="N12" s="1"/>
       <c r="Q12" s="10">
         <v>1.4</v>
       </c>
@@ -1324,6 +1544,7 @@
       <c r="M13" s="2">
         <v>111</v>
       </c>
+      <c r="N13" s="1"/>
       <c r="Q13" s="10">
         <v>1.5</v>
       </c>
@@ -1372,6 +1593,7 @@
       <c r="M14" s="2">
         <v>112</v>
       </c>
+      <c r="N14" s="1"/>
       <c r="Q14" s="10">
         <v>1.6</v>
       </c>
@@ -1390,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="6">
         <v>1.23</v>
@@ -1402,13 +1624,17 @@
       <c r="G15" s="2">
         <v>13</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.21</v>
+      </c>
       <c r="J15" s="2">
         <v>63</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="12">
         <v>2.6</v>
@@ -1416,6 +1642,7 @@
       <c r="M15" s="2">
         <v>113</v>
       </c>
+      <c r="N15" s="1"/>
       <c r="Q15" s="10">
         <v>1.7</v>
       </c>
@@ -1451,11 +1678,16 @@
       <c r="J16" s="2">
         <v>64</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="M16" s="2">
         <v>114</v>
       </c>
+      <c r="N16" s="1"/>
       <c r="Q16" s="10">
         <v>1.8</v>
       </c>
@@ -1487,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="6">
         <v>1.24</v>
@@ -1504,6 +1736,7 @@
       <c r="M17" s="2">
         <v>115</v>
       </c>
+      <c r="N17" s="1"/>
       <c r="Q17" s="10">
         <v>1.9</v>
       </c>
@@ -1540,14 +1773,19 @@
       <c r="I18" s="12">
         <v>1.7</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>66</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2.19</v>
+      </c>
       <c r="M18" s="2">
         <v>116</v>
       </c>
+      <c r="N18" s="1"/>
       <c r="Q18" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1566,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>1.3</v>
@@ -1584,7 +1822,7 @@
         <v>67</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="6">
         <v>1.1499999999999999</v>
@@ -1592,6 +1830,7 @@
       <c r="M19" s="2">
         <v>117</v>
       </c>
+      <c r="N19" s="1"/>
       <c r="Q19" s="2">
         <v>1.1100000000000001</v>
       </c>
@@ -1601,7 +1840,9 @@
       <c r="S19" s="2">
         <v>2.11</v>
       </c>
-      <c r="T19" s="11"/>
+      <c r="T19" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1620,15 +1861,25 @@
       <c r="G20" s="2">
         <v>18</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2.23</v>
+      </c>
       <c r="J20" s="2">
         <v>68</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>118</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="2">
+        <v>2.23</v>
       </c>
       <c r="Q20" s="9">
         <v>1.1200000000000001</v>
@@ -1639,14 +1890,16 @@
       <c r="S20" s="2">
         <v>2.12</v>
       </c>
-      <c r="T20" s="11"/>
+      <c r="T20" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6">
         <v>1.2</v>
@@ -1668,14 +1921,15 @@
         <v>69</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="2">
         <v>119</v>
       </c>
+      <c r="N21" s="1"/>
       <c r="Q21" s="8">
         <v>1.1299999999999999</v>
       </c>
@@ -1685,7 +1939,9 @@
       <c r="S21" s="9">
         <v>2.13</v>
       </c>
-      <c r="T21" s="11"/>
+      <c r="T21" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1701,11 +1957,15 @@
         <v>70</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>20</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2.13</v>
+      </c>
       <c r="J22" s="2">
         <v>70</v>
       </c>
@@ -1718,6 +1978,7 @@
       <c r="M22" s="2">
         <v>120</v>
       </c>
+      <c r="N22" s="1"/>
       <c r="Q22" s="9">
         <v>1.1399999999999999</v>
       </c>
@@ -1727,7 +1988,9 @@
       <c r="S22" s="8">
         <v>2.14</v>
       </c>
-      <c r="T22" s="11"/>
+      <c r="T22" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1746,13 +2009,17 @@
       <c r="G23" s="2">
         <v>21</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2.21</v>
+      </c>
       <c r="J23" s="2">
         <v>71</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23" s="12">
         <v>2.9</v>
@@ -1760,6 +2027,12 @@
       <c r="M23" s="2">
         <v>121</v>
       </c>
+      <c r="N23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2.14</v>
+      </c>
       <c r="Q23" s="8">
         <v>1.1499999999999999</v>
       </c>
@@ -1769,7 +2042,9 @@
       <c r="S23" s="8">
         <v>2.15</v>
       </c>
-      <c r="T23" s="11"/>
+      <c r="T23" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1785,7 +2060,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" s="12">
         <v>2.9</v>
@@ -1798,13 +2073,19 @@
       <c r="M24" s="2">
         <v>122</v>
       </c>
+      <c r="N24" s="1"/>
       <c r="Q24" s="9">
         <v>1.1599999999999999</v>
       </c>
       <c r="R24" s="11">
         <v>2</v>
       </c>
-      <c r="T24" s="11"/>
+      <c r="S24" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="T24" s="10">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1824,7 +2105,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="6">
         <v>1.31</v>
@@ -1841,13 +2122,19 @@
       <c r="M25" s="2">
         <v>123</v>
       </c>
+      <c r="N25" s="1"/>
       <c r="Q25" s="8">
         <v>1.17</v>
       </c>
       <c r="R25" s="11">
         <v>3</v>
       </c>
-      <c r="T25" s="11"/>
+      <c r="S25" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1867,7 +2154,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="12">
         <v>2.2000000000000002</v>
@@ -1876,7 +2163,7 @@
         <v>74</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="6">
         <v>2.1</v>
@@ -1884,23 +2171,29 @@
       <c r="M26" s="2">
         <v>124</v>
       </c>
+      <c r="N26" s="1"/>
       <c r="Q26" s="9">
         <v>1.18</v>
       </c>
       <c r="R26" s="11">
         <v>4</v>
       </c>
-      <c r="T26" s="11"/>
+      <c r="S26" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="T26" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>75</v>
@@ -1927,13 +2220,24 @@
       <c r="M27" s="2">
         <v>125</v>
       </c>
+      <c r="N27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2.16</v>
+      </c>
       <c r="Q27" s="8">
         <v>1.19</v>
       </c>
       <c r="R27" s="11">
         <v>1</v>
       </c>
-      <c r="T27" s="11"/>
+      <c r="S27" s="16">
+        <v>2.19</v>
+      </c>
+      <c r="T27" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1957,18 +2261,28 @@
       <c r="J28" s="2">
         <v>76</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
+      <c r="K28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="6">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="M28" s="2">
         <v>126</v>
       </c>
+      <c r="N28" s="1"/>
       <c r="Q28" s="9">
         <v>1.2</v>
       </c>
       <c r="R28" s="11">
         <v>1</v>
       </c>
-      <c r="T28" s="11"/>
+      <c r="S28" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T28" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -2005,13 +2319,19 @@
       <c r="M29" s="2">
         <v>127</v>
       </c>
+      <c r="N29" s="1"/>
       <c r="Q29" s="8">
         <v>1.21</v>
       </c>
       <c r="R29" s="10">
         <v>4.5</v>
       </c>
-      <c r="T29" s="11"/>
+      <c r="S29" s="17">
+        <v>2.21</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2040,7 +2360,7 @@
         <v>78</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L30" s="6">
         <v>1.27</v>
@@ -2048,13 +2368,19 @@
       <c r="M30" s="2">
         <v>128</v>
       </c>
+      <c r="N30" s="1"/>
       <c r="Q30" s="9">
         <v>1.22</v>
       </c>
       <c r="R30" s="11">
         <v>1</v>
       </c>
-      <c r="T30" s="11"/>
+      <c r="S30" s="17">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -2074,7 +2400,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I31" s="6">
         <v>1.17</v>
@@ -2082,18 +2408,28 @@
       <c r="J31" s="2">
         <v>79</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
+      <c r="K31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2.15</v>
+      </c>
       <c r="M31" s="2">
         <v>129</v>
       </c>
+      <c r="N31" s="1"/>
       <c r="Q31" s="8">
         <v>1.23</v>
       </c>
       <c r="R31" s="11">
         <v>3</v>
       </c>
-      <c r="T31" s="11"/>
+      <c r="S31" s="17">
+        <v>2.23</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -2112,8 +2448,12 @@
       <c r="G32" s="2">
         <v>30</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2.23</v>
+      </c>
       <c r="J32" s="4">
         <v>80</v>
       </c>
@@ -2126,11 +2466,15 @@
       <c r="M32" s="2">
         <v>130</v>
       </c>
+      <c r="N32" s="1"/>
       <c r="Q32" s="9">
         <v>1.24</v>
       </c>
       <c r="R32" s="11">
         <v>1</v>
+      </c>
+      <c r="S32" s="17">
+        <v>2.2400000000000002</v>
       </c>
       <c r="T32" s="11"/>
     </row>
@@ -2157,7 +2501,7 @@
         <v>81</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="6">
         <v>1.22</v>
@@ -2165,11 +2509,15 @@
       <c r="M33" s="2">
         <v>131</v>
       </c>
+      <c r="N33" s="1"/>
       <c r="Q33" s="8">
         <v>1.25</v>
       </c>
       <c r="R33" s="11">
         <v>0</v>
+      </c>
+      <c r="S33" s="17">
+        <v>2.25</v>
       </c>
       <c r="T33" s="11"/>
     </row>
@@ -2191,7 +2539,7 @@
         <v>32</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I34" s="6">
         <v>2.11</v>
@@ -2208,11 +2556,15 @@
       <c r="M34" s="2">
         <v>132</v>
       </c>
+      <c r="N34" s="1"/>
       <c r="Q34" s="9">
         <v>1.26</v>
       </c>
       <c r="R34" s="11">
         <v>0</v>
+      </c>
+      <c r="S34" s="17">
+        <v>2.2599999999999998</v>
       </c>
       <c r="T34" s="11"/>
     </row>
@@ -2251,6 +2603,7 @@
       <c r="M35" s="2">
         <v>133</v>
       </c>
+      <c r="N35" s="1"/>
       <c r="Q35" s="8">
         <v>1.27</v>
       </c>
@@ -2269,11 +2622,15 @@
         <v>84</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="G36" s="2">
+      <c r="G36" s="7">
         <v>34</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="6"/>
+      <c r="H36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="6">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="J36" s="2">
         <v>84</v>
       </c>
@@ -2286,6 +2643,7 @@
       <c r="M36" s="2">
         <v>134</v>
       </c>
+      <c r="N36" s="1"/>
       <c r="Q36" s="9">
         <v>1.28</v>
       </c>
@@ -2299,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="6">
         <v>1.17</v>
@@ -2329,6 +2687,7 @@
       <c r="M37" s="2">
         <v>135</v>
       </c>
+      <c r="N37" s="1"/>
       <c r="Q37" s="8">
         <v>1.29</v>
       </c>
@@ -2363,11 +2722,16 @@
       <c r="J38" s="2">
         <v>86</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
+      <c r="K38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L38" s="6">
+        <v>2.13</v>
+      </c>
       <c r="M38" s="2">
         <v>136</v>
       </c>
+      <c r="N38" s="1"/>
       <c r="Q38" s="9">
         <v>1.3</v>
       </c>
@@ -2407,6 +2771,7 @@
       <c r="M39" s="2">
         <v>137</v>
       </c>
+      <c r="N39" s="1"/>
       <c r="Q39" s="8">
         <v>1.31</v>
       </c>
@@ -2442,7 +2807,7 @@
         <v>88</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L40" s="6">
         <v>1.23</v>
@@ -2450,6 +2815,7 @@
       <c r="M40" s="2">
         <v>138</v>
       </c>
+      <c r="N40" s="1"/>
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
@@ -2471,7 +2837,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I41" s="12">
         <v>2.2000000000000002</v>
@@ -2480,7 +2846,7 @@
         <v>89</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41" s="6">
         <v>1.17</v>
@@ -2497,7 +2863,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="6">
         <v>1.18</v>
@@ -2514,9 +2880,11 @@
       <c r="J42" s="2">
         <v>90</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="6" t="s">
-        <v>47</v>
+      <c r="K42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="6">
+        <v>2.14</v>
       </c>
       <c r="M42" s="2">
         <v>140</v>
@@ -2548,11 +2916,15 @@
       <c r="I43" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="3">
         <v>91</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
+      <c r="K43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2.13</v>
+      </c>
       <c r="M43" s="2">
         <v>141</v>
       </c>
@@ -2613,16 +2985,20 @@
         <v>93</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <v>43</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="6"/>
+      <c r="H45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="6">
+        <v>2.16</v>
+      </c>
       <c r="J45" s="3">
         <v>93</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L45" s="6">
         <v>1.18</v>
@@ -2639,7 +3015,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="12">
         <v>2.9</v>
@@ -2660,8 +3036,12 @@
       <c r="J46" s="2">
         <v>94</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="6"/>
+      <c r="K46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L46" s="6">
+        <v>2.15</v>
+      </c>
       <c r="M46" s="2">
         <v>144</v>
       </c>
@@ -2674,7 +3054,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="6">
         <v>1.18</v>
@@ -2705,7 +3085,12 @@
       <c r="M47" s="2">
         <v>145</v>
       </c>
-      <c r="N47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2.23</v>
+      </c>
       <c r="P47" s="11"/>
       <c r="R47" s="11"/>
     </row>
@@ -2733,7 +3118,7 @@
         <v>96</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L48" s="6">
         <v>1.28</v>
@@ -2741,7 +3126,12 @@
       <c r="M48" s="2">
         <v>146</v>
       </c>
-      <c r="N48" s="5"/>
+      <c r="N48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O48" s="2">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="P48" s="11"/>
       <c r="R48" s="11"/>
     </row>
@@ -2768,12 +3158,21 @@
       <c r="J49" s="2">
         <v>97</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="6"/>
+      <c r="K49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="6">
+        <v>2.11</v>
+      </c>
       <c r="M49" s="2">
         <v>147</v>
       </c>
-      <c r="N49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O49" s="2">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="P49" s="11"/>
       <c r="R49" s="11"/>
     </row>
@@ -2797,15 +3196,24 @@
       <c r="I50" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="19">
         <v>98</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="6"/>
+      <c r="K50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2.21</v>
+      </c>
       <c r="M50" s="2">
         <v>148</v>
       </c>
-      <c r="N50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="P50" s="11"/>
       <c r="R50" s="11"/>
     </row>
@@ -2814,7 +3222,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6">
         <v>1.21</v>
@@ -2824,7 +3232,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I51" s="6">
         <v>1.21</v>
@@ -2832,12 +3240,21 @@
       <c r="J51" s="2">
         <v>99</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="6"/>
+      <c r="K51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2.19</v>
+      </c>
       <c r="M51" s="2">
         <v>149</v>
       </c>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2.14</v>
+      </c>
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -2859,22 +3276,32 @@
         <v>100</v>
       </c>
       <c r="K52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="M52" s="2">
         <v>150</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52" s="2">
+        <v>2.12</v>
+      </c>
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M53" s="2">
+      <c r="M53" s="3">
         <v>151</v>
       </c>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O53" s="2">
+        <v>2.12</v>
+      </c>
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -2882,10 +3309,10 @@
         <v>152</v>
       </c>
       <c r="N54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="R54" s="11"/>
     </row>
@@ -2903,7 +3330,7 @@
         <v>153</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O55" s="10">
         <v>2.5</v>
@@ -2926,7 +3353,7 @@
         <v>154</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O56" s="10">
         <v>2.5</v>
@@ -2949,7 +3376,7 @@
         <v>155</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O57" s="10">
         <v>2.2999999999999998</v>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E323B1-EA62-4268-BBDE-BB32DF042471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B00EB-11F2-4E66-849E-9873724C74B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,24 +545,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做了一晚上还是有错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.5+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5+1</t>
-  </si>
-  <si>
-    <t>0.5+1</t>
-  </si>
-  <si>
-    <t>0.5.5+1</t>
-  </si>
-  <si>
-    <t>2.5+1</t>
+    <t>2.23-2.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了一晚上还是有错，第二天才做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不懂答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；没看懂算法笔记P400的答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;标准答案没看懂（树状数组）,后勉强看懂，3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6-3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 自己的方法太麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;检查了好久，最后在研友帮助下解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有两个错；后解决了，少了个符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10-3.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一个错；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -575,7 +656,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +714,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -654,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -713,6 +801,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,6 +831,2372 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2019</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>27</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>日起每天做的题目数</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32506565634294171"/>
+          <c:y val="1.5399417853503034E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF71-44EA-A426-1A8EA4F223FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="570553960"/>
+        <c:axId val="570552976"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="570553960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570552976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="570552976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570553960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2019</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>27</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日起每天做的题目数</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.0_);[Red]\(0.0\)">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE20-43DB-99A3-025B2965C104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="847014912"/>
+        <c:axId val="847015568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="847014912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847015568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847015568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847014912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623886</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F9F053-A3F9-40EC-83F5-279E297BFD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C02D17-DEF8-44B5-BEF6-40C002227D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T150"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,27 +3483,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D2" s="24"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1089,7 +3552,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1138,7 +3601,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1187,7 +3650,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1236,7 +3699,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1271,7 +3734,12 @@
       <c r="M7" s="2">
         <v>105</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3.8</v>
+      </c>
       <c r="Q7" s="9">
         <v>12.31</v>
       </c>
@@ -1280,7 +3748,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1324,7 +3792,7 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1341,13 +3809,21 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="12">
+        <v>3.2</v>
+      </c>
       <c r="J9" s="2">
         <v>57</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="M9" s="3">
         <v>107</v>
       </c>
@@ -1369,8 +3845,14 @@
       <c r="T9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1402,10 +3884,15 @@
       <c r="L10" s="12">
         <v>1.2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>108</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="18">
+        <v>3.1</v>
+      </c>
       <c r="Q10" s="10">
         <v>1.2</v>
       </c>
@@ -1418,8 +3905,14 @@
       <c r="T10" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="V10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1467,8 +3960,14 @@
       <c r="T11" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1500,10 +3999,15 @@
       <c r="L12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>110</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="18">
+        <v>3.1</v>
+      </c>
       <c r="Q12" s="10">
         <v>1.4</v>
       </c>
@@ -1516,8 +4020,14 @@
       <c r="T12" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1557,8 +4067,14 @@
       <c r="T13" s="10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="V13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1606,8 +4122,14 @@
       <c r="T14" s="10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1655,8 +4177,14 @@
       <c r="T15" s="10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="22">
+        <v>3.7</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1673,8 +4201,12 @@
       <c r="G16" s="2">
         <v>14</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="12">
+        <v>3.9</v>
+      </c>
       <c r="J16" s="2">
         <v>64</v>
       </c>
@@ -1700,8 +4232,14 @@
       <c r="T16" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="22">
+        <v>3.8</v>
+      </c>
+      <c r="V16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1749,8 +4287,14 @@
       <c r="T17" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="22">
+        <v>3.9</v>
+      </c>
+      <c r="V17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1798,8 +4342,14 @@
       <c r="T18" s="10">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1816,8 +4366,12 @@
       <c r="G19" s="2">
         <v>17</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="12">
+        <v>3.8</v>
+      </c>
       <c r="J19" s="2">
         <v>67</v>
       </c>
@@ -1843,8 +4397,14 @@
       <c r="T19" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1867,19 +4427,23 @@
       <c r="I20" s="6">
         <v>2.23</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>68</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="4">
+      <c r="K20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="M20" s="21">
         <v>118</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" s="2">
-        <v>2.23</v>
+        <v>131</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="Q20" s="9">
         <v>1.1200000000000001</v>
@@ -1893,8 +4457,11 @@
       <c r="T20" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="18">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1942,8 +4509,11 @@
       <c r="T21" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="22">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1991,8 +4561,11 @@
       <c r="T22" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="18">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2045,8 +4618,11 @@
       <c r="T23" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="22">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2068,8 +4644,12 @@
       <c r="J24" s="2">
         <v>72</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
+      <c r="K24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="6">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="M24" s="2">
         <v>122</v>
       </c>
@@ -2086,8 +4666,11 @@
       <c r="T24" s="10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="18">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2135,8 +4718,11 @@
       <c r="T25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="22">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2184,8 +4770,11 @@
       <c r="T26" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="18">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2238,8 +4827,11 @@
       <c r="T27" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="22">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2256,8 +4848,12 @@
       <c r="G28" s="2">
         <v>26</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="12">
+        <v>3.9</v>
+      </c>
       <c r="J28" s="2">
         <v>76</v>
       </c>
@@ -2283,8 +4879,11 @@
       <c r="T28" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="18">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2332,8 +4931,11 @@
       <c r="T29" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="22">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2368,7 +4970,12 @@
       <c r="M30" s="2">
         <v>128</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O30" s="18">
+        <v>3.1</v>
+      </c>
       <c r="Q30" s="9">
         <v>1.22</v>
       </c>
@@ -2381,8 +4988,11 @@
       <c r="T30" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="18">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2428,10 +5038,13 @@
         <v>2.23</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="U31" s="22">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2476,9 +5089,14 @@
       <c r="S32" s="17">
         <v>2.2400000000000002</v>
       </c>
-      <c r="T32" s="11"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="U32" s="18">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2509,7 +5127,12 @@
       <c r="M33" s="2">
         <v>131</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2.27</v>
+      </c>
       <c r="Q33" s="8">
         <v>1.25</v>
       </c>
@@ -2519,9 +5142,14 @@
       <c r="S33" s="17">
         <v>2.25</v>
       </c>
-      <c r="T33" s="11"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="U33" s="22">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2566,9 +5194,14 @@
       <c r="S34" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="T34" s="11"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U34" s="18">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2610,9 +5243,17 @@
       <c r="R35" s="11">
         <v>1</v>
       </c>
-      <c r="T35" s="11"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S35" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="U35" s="22">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2650,9 +5291,17 @@
       <c r="R36" s="10">
         <v>0.5</v>
       </c>
-      <c r="T36" s="11"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S36" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="T36" s="11">
+        <v>2</v>
+      </c>
+      <c r="U36" s="18">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2687,16 +5336,26 @@
       <c r="M37" s="2">
         <v>135</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="Q37" s="8">
         <v>1.29</v>
       </c>
       <c r="R37" s="11">
         <v>0</v>
       </c>
-      <c r="T37" s="11"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="T37" s="11">
+        <v>0</v>
+      </c>
+      <c r="U37" s="22">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2731,16 +5390,23 @@
       <c r="M38" s="2">
         <v>136</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="Q38" s="9">
         <v>1.3</v>
       </c>
       <c r="R38" s="11">
         <v>2</v>
       </c>
-      <c r="T38" s="11"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="18">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2766,8 +5432,12 @@
       <c r="J39" s="2">
         <v>87</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
+      <c r="K39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="6">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="M39" s="2">
         <v>137</v>
       </c>
@@ -2778,9 +5448,11 @@
       <c r="R39" s="11">
         <v>1</v>
       </c>
-      <c r="T39" s="11"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="22">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2819,7 +5491,7 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2858,7 +5530,7 @@
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2872,11 +5544,15 @@
         <v>90</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>40</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="12">
+        <v>3.5</v>
+      </c>
       <c r="J42" s="2">
         <v>90</v>
       </c>
@@ -2889,11 +5565,16 @@
       <c r="M42" s="2">
         <v>140</v>
       </c>
-      <c r="N42" s="5"/>
+      <c r="N42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O42" s="18">
+        <v>3.1</v>
+      </c>
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2931,8 +5612,9 @@
       <c r="N43" s="5"/>
       <c r="P43" s="11"/>
       <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="20"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2970,8 +5652,9 @@
       <c r="N44" s="5"/>
       <c r="P44" s="11"/>
       <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T44" s="20"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3009,8 +5692,9 @@
       <c r="N45" s="5"/>
       <c r="P45" s="11"/>
       <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="20"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3048,8 +5732,9 @@
       <c r="N46" s="5"/>
       <c r="P46" s="11"/>
       <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T46" s="20"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3071,8 +5756,12 @@
       <c r="G47" s="2">
         <v>45</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="6"/>
+      <c r="H47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="12">
+        <v>3.4</v>
+      </c>
       <c r="J47" s="2">
         <v>95</v>
       </c>
@@ -3093,8 +5782,9 @@
       </c>
       <c r="P47" s="11"/>
       <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T47" s="20"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3134,6 +5824,7 @@
       </c>
       <c r="P48" s="11"/>
       <c r="R48" s="11"/>
+      <c r="T48" s="20"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -3261,8 +5952,12 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="12">
+        <v>3.8</v>
+      </c>
       <c r="G52" s="2">
         <v>50</v>
       </c>
@@ -5229,4 +7924,802 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
+  <dimension ref="B4:D74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>12.27</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>12.28</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>12.29</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>12.31</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D19" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1.17</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1.19</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1.21</v>
+      </c>
+      <c r="D29" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1.23</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1.24</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1.26</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1.27</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" s="22">
+        <v>1.29</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22">
+        <v>1.31</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" s="22">
+        <v>2.1</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" s="22">
+        <v>2.6</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22">
+        <v>2.7</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" s="22">
+        <v>2.9</v>
+      </c>
+      <c r="D48" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22">
+        <v>2.11</v>
+      </c>
+      <c r="D50" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" s="22">
+        <v>2.12</v>
+      </c>
+      <c r="D51" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="D52" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" s="22">
+        <v>2.14</v>
+      </c>
+      <c r="D53" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54" s="22">
+        <v>2.15</v>
+      </c>
+      <c r="D54" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55" s="22">
+        <v>2.16</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22">
+        <v>2.17</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" s="22">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D57" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22">
+        <v>2.19</v>
+      </c>
+      <c r="D58" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60" s="22">
+        <v>2.21</v>
+      </c>
+      <c r="D60" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D61" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62" s="22">
+        <v>2.23</v>
+      </c>
+      <c r="D62" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" s="22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D63" s="11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" s="22">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D65" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" s="22">
+        <v>2.27</v>
+      </c>
+      <c r="D66" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67" s="22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D67" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" s="22">
+        <v>2.29</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" s="22">
+        <v>3.3</v>
+      </c>
+      <c r="D71" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="D72" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="D73" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" s="22">
+        <v>3.6</v>
+      </c>
+      <c r="D74" s="22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B00EB-11F2-4E66-849E-9873724C74B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72BB39-FEEF-4269-BA64-31A494FDDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,7 +641,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还有一个错；</t>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一个错；在研友帮助下解决了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11-3.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 有两个超时，后用的答案的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的方法很麻烦还只对了两个；和151题有点相似；第二天解决了一个Bug5, 还有一个超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.13-3.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 前序中序转后序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 类似66题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 抄完答案后才看懂题意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3464,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3947,7 +4023,12 @@
       <c r="M11" s="2">
         <v>109</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3.16</v>
+      </c>
       <c r="Q11" s="10">
         <v>1.3</v>
       </c>
@@ -4054,7 +4135,12 @@
       <c r="M13" s="2">
         <v>111</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3.18</v>
+      </c>
       <c r="Q13" s="10">
         <v>1.5</v>
       </c>
@@ -4109,7 +4195,12 @@
       <c r="M14" s="2">
         <v>112</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3.14</v>
+      </c>
       <c r="Q14" s="10">
         <v>1.6</v>
       </c>
@@ -4219,7 +4310,12 @@
       <c r="M16" s="2">
         <v>114</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3.13</v>
+      </c>
       <c r="Q16" s="10">
         <v>1.8</v>
       </c>
@@ -4329,7 +4425,12 @@
       <c r="M18" s="2">
         <v>116</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3.14</v>
+      </c>
       <c r="Q18" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -4384,7 +4485,12 @@
       <c r="M19" s="2">
         <v>117</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3.16</v>
+      </c>
       <c r="Q19" s="2">
         <v>1.1100000000000001</v>
       </c>
@@ -4460,6 +4566,9 @@
       <c r="U20" s="18">
         <v>3.12</v>
       </c>
+      <c r="V20" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -4512,6 +4621,9 @@
       <c r="U21" s="22">
         <v>3.13</v>
       </c>
+      <c r="V21" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -4548,7 +4660,12 @@
       <c r="M22" s="2">
         <v>120</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="2">
+        <v>3.18</v>
+      </c>
       <c r="Q22" s="9">
         <v>1.1399999999999999</v>
       </c>
@@ -4563,6 +4680,9 @@
       </c>
       <c r="U22" s="18">
         <v>3.14</v>
+      </c>
+      <c r="V22" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -4620,6 +4740,9 @@
       </c>
       <c r="U23" s="22">
         <v>3.15</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -4669,6 +4792,9 @@
       <c r="U24" s="18">
         <v>3.16</v>
       </c>
+      <c r="V24" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -4705,7 +4831,12 @@
       <c r="M25" s="2">
         <v>123</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3.16</v>
+      </c>
       <c r="Q25" s="8">
         <v>1.17</v>
       </c>
@@ -4720,6 +4851,9 @@
       </c>
       <c r="U25" s="22">
         <v>3.17</v>
+      </c>
+      <c r="V25" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -4773,6 +4907,9 @@
       <c r="U26" s="18">
         <v>3.18</v>
       </c>
+      <c r="V26" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
@@ -4866,7 +5003,12 @@
       <c r="M28" s="2">
         <v>126</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" s="2">
+        <v>3.17</v>
+      </c>
       <c r="Q28" s="9">
         <v>1.2</v>
       </c>
@@ -4915,10 +5057,15 @@
       <c r="L29" s="12">
         <v>1.5</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="3">
         <v>127</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3.17</v>
+      </c>
       <c r="Q29" s="8">
         <v>1.21</v>
       </c>
@@ -5027,7 +5174,12 @@
       <c r="M31" s="2">
         <v>129</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3.13</v>
+      </c>
       <c r="Q31" s="8">
         <v>1.23</v>
       </c>
@@ -5236,7 +5388,12 @@
       <c r="M35" s="2">
         <v>133</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3.18</v>
+      </c>
       <c r="Q35" s="8">
         <v>1.27</v>
       </c>
@@ -5284,7 +5441,12 @@
       <c r="M36" s="2">
         <v>134</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3.12</v>
+      </c>
       <c r="Q36" s="9">
         <v>1.28</v>
       </c>
@@ -5333,11 +5495,14 @@
       <c r="L37" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="3">
         <v>135</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="Q37" s="8">
         <v>1.29</v>
@@ -5484,10 +5649,15 @@
       <c r="L40" s="6">
         <v>1.23</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="3">
         <v>138</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3.14</v>
+      </c>
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
@@ -5609,7 +5779,12 @@
       <c r="M43" s="2">
         <v>141</v>
       </c>
-      <c r="N43" s="5"/>
+      <c r="N43" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O43" s="2">
+        <v>3.16</v>
+      </c>
       <c r="P43" s="11"/>
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
@@ -5686,10 +5861,15 @@
       <c r="L45" s="6">
         <v>1.18</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="7">
         <v>143</v>
       </c>
-      <c r="N45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="P45" s="11"/>
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
@@ -5729,7 +5909,12 @@
       <c r="M46" s="2">
         <v>144</v>
       </c>
-      <c r="N46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3.18</v>
+      </c>
       <c r="P46" s="11"/>
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72BB39-FEEF-4269-BA64-31A494FDDE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8744DD-1F23-4577-96ED-7A9AC7C8FC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还有两个通不过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;超时题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后一个用例通不过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,6 +706,70 @@
   </si>
   <si>
     <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE; 自己的方法有一个超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个用例通不过；3.25花一个晚上终于检查出来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21；3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10，3.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有两个通不过；3.26下午检查出来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -818,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -886,6 +942,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,10 +1179,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$74</c:f>
+              <c:f>Sheet2!$D$4:$D$120</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1326,6 +1395,144 @@
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,10 +1900,10 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$74</c:f>
+              <c:f>Sheet2!$D$4:$D$120</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1909,6 +2116,144 @@
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3559,27 +3904,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3606,7 +3951,7 @@
         <v>51</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" s="6">
         <v>2.1</v>
@@ -3615,7 +3960,7 @@
         <v>101</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2">
         <v>1.18</v>
@@ -3628,7 +3973,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3655,7 +4000,7 @@
         <v>52</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L4" s="6">
         <v>2.11</v>
@@ -3664,7 +4009,7 @@
         <v>102</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2">
         <v>2.14</v>
@@ -3677,12 +4022,12 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6">
         <v>1.19</v>
@@ -3704,7 +4049,7 @@
         <v>53</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L5" s="6">
         <v>2.16</v>
@@ -3713,7 +4058,7 @@
         <v>103</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O5" s="2">
         <v>2.11</v>
@@ -3726,7 +4071,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3744,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" s="6">
         <v>2.15</v>
@@ -3753,7 +4098,7 @@
         <v>54</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L6" s="12">
         <v>2.9</v>
@@ -3762,7 +4107,7 @@
         <v>104</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="2">
         <v>1.21</v>
@@ -3775,12 +4120,12 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6">
         <v>1.1100000000000001</v>
@@ -3811,7 +4156,7 @@
         <v>105</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O7" s="2">
         <v>3.8</v>
@@ -3820,11 +4165,11 @@
         <v>12.31</v>
       </c>
       <c r="R7" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3851,7 +4196,7 @@
         <v>56</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L8" s="6">
         <v>2.1</v>
@@ -3860,7 +4205,7 @@
         <v>106</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O8" s="2">
         <v>2.15</v>
@@ -3868,12 +4213,12 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6">
         <v>1.23</v>
@@ -3886,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" s="12">
         <v>3.2</v>
@@ -3895,16 +4240,16 @@
         <v>57</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M9" s="3">
         <v>107</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O9" s="18">
         <v>2.2000000000000002</v>
@@ -3927,8 +4272,14 @@
       <c r="V9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3946,7 +4297,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="6">
         <v>1.21</v>
@@ -3964,7 +4315,7 @@
         <v>108</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O10" s="18">
         <v>3.1</v>
@@ -3987,8 +4338,14 @@
       <c r="V10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="X10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4015,7 +4372,7 @@
         <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="6">
         <v>1.3</v>
@@ -4024,7 +4381,7 @@
         <v>109</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O11" s="2">
         <v>3.16</v>
@@ -4039,7 +4396,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
         <v>3.3</v>
@@ -4047,8 +4404,14 @@
       <c r="V11" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4066,7 +4429,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="6">
         <v>1.1599999999999999</v>
@@ -4075,16 +4438,16 @@
         <v>60</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M12" s="3">
         <v>110</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O12" s="18">
         <v>3.1</v>
@@ -4105,10 +4468,16 @@
         <v>3.4</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="W12" s="25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4121,8 +4490,12 @@
       <c r="G13" s="2">
         <v>11</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="6">
+        <v>12.31</v>
+      </c>
       <c r="J13" s="2">
         <v>61</v>
       </c>
@@ -4136,7 +4509,7 @@
         <v>111</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2">
         <v>3.18</v>
@@ -4159,8 +4532,14 @@
       <c r="V13" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4196,7 +4575,7 @@
         <v>112</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O14" s="2">
         <v>3.14</v>
@@ -4219,13 +4598,19 @@
       <c r="V14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6">
         <v>1.23</v>
@@ -4238,7 +4623,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I15" s="6">
         <v>2.21</v>
@@ -4247,7 +4632,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L15" s="12">
         <v>2.6</v>
@@ -4255,7 +4640,12 @@
       <c r="M15" s="2">
         <v>113</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3.19</v>
+      </c>
       <c r="Q15" s="10">
         <v>1.7</v>
       </c>
@@ -4274,8 +4664,14 @@
       <c r="V15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="25">
+        <v>4.7</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4293,7 +4689,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I16" s="12">
         <v>3.9</v>
@@ -4302,7 +4698,7 @@
         <v>64</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L16" s="6">
         <v>2.1800000000000002</v>
@@ -4311,7 +4707,7 @@
         <v>114</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O16" s="2">
         <v>3.13</v>
@@ -4334,8 +4730,14 @@
       <c r="V16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="25">
+        <v>4.8</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4353,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="6">
         <v>1.24</v>
@@ -4370,7 +4772,12 @@
       <c r="M17" s="2">
         <v>115</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3.19</v>
+      </c>
       <c r="Q17" s="10">
         <v>1.9</v>
       </c>
@@ -4389,8 +4796,14 @@
       <c r="V17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4417,7 +4830,7 @@
         <v>66</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" s="6">
         <v>2.19</v>
@@ -4426,7 +4839,7 @@
         <v>116</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O18" s="2">
         <v>3.14</v>
@@ -4449,13 +4862,19 @@
       <c r="V18" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6">
         <v>1.3</v>
@@ -4468,7 +4887,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="12">
         <v>3.8</v>
@@ -4477,7 +4896,7 @@
         <v>67</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="6">
         <v>1.1499999999999999</v>
@@ -4486,7 +4905,7 @@
         <v>117</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O19" s="2">
         <v>3.16</v>
@@ -4509,8 +4928,14 @@
       <c r="V19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="2">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="X19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4528,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I20" s="6">
         <v>2.23</v>
@@ -4537,7 +4962,7 @@
         <v>68</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L20" s="12">
         <v>3.5</v>
@@ -4546,10 +4971,10 @@
         <v>118</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="9">
         <v>1.1200000000000001</v>
@@ -4567,15 +4992,21 @@
         <v>3.12</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="W20" s="18">
+        <v>4.12</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="6">
         <v>1.2</v>
@@ -4597,15 +5028,20 @@
         <v>69</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2">
         <v>119</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3.19</v>
+      </c>
       <c r="Q21" s="8">
         <v>1.1299999999999999</v>
       </c>
@@ -4624,13 +5060,19 @@
       <c r="V21" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="25">
+        <v>4.13</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
         <v>1.1200000000000001</v>
@@ -4643,7 +5085,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" s="6">
         <v>2.13</v>
@@ -4652,7 +5094,7 @@
         <v>70</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="6">
         <v>1.1200000000000001</v>
@@ -4661,7 +5103,7 @@
         <v>120</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O22" s="2">
         <v>3.18</v>
@@ -4684,8 +5126,14 @@
       <c r="V22" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="18">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="X22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4703,7 +5151,7 @@
         <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I23" s="6">
         <v>2.21</v>
@@ -4712,7 +5160,7 @@
         <v>71</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L23" s="12">
         <v>2.9</v>
@@ -4721,7 +5169,7 @@
         <v>121</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O23" s="2">
         <v>2.14</v>
@@ -4742,10 +5190,16 @@
         <v>3.15</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="W23" s="25">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4759,7 +5213,7 @@
         <v>22</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="12">
         <v>2.9</v>
@@ -4768,7 +5222,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L24" s="6">
         <v>2.2799999999999998</v>
@@ -4776,7 +5230,12 @@
       <c r="M24" s="2">
         <v>122</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3.19</v>
+      </c>
       <c r="Q24" s="9">
         <v>1.1599999999999999</v>
       </c>
@@ -4795,13 +5254,19 @@
       <c r="V24" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="18">
+        <v>4.16</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6">
         <v>1.1200000000000001</v>
@@ -4814,7 +5279,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" s="6">
         <v>1.31</v>
@@ -4832,7 +5297,7 @@
         <v>123</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O25" s="2">
         <v>3.16</v>
@@ -4855,8 +5320,14 @@
       <c r="V25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="25">
+        <v>4.17</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4874,7 +5345,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="12">
         <v>2.2000000000000002</v>
@@ -4883,7 +5354,7 @@
         <v>74</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" s="6">
         <v>2.1</v>
@@ -4891,7 +5362,12 @@
       <c r="M26" s="2">
         <v>124</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" s="18">
+        <v>3.2</v>
+      </c>
       <c r="Q26" s="9">
         <v>1.18</v>
       </c>
@@ -4910,16 +5386,22 @@
       <c r="V26" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="18">
+        <v>4.1800000000000104</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2">
         <v>75</v>
@@ -4947,7 +5429,7 @@
         <v>125</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O27" s="2">
         <v>2.16</v>
@@ -4967,8 +5449,17 @@
       <c r="U27" s="22">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V27" s="2">
+        <v>4</v>
+      </c>
+      <c r="W27" s="25">
+        <v>4.1900000000000102</v>
+      </c>
+      <c r="X27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4986,7 +5477,7 @@
         <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I28" s="12">
         <v>3.9</v>
@@ -4995,7 +5486,7 @@
         <v>76</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L28" s="6">
         <v>2.2200000000000002</v>
@@ -5004,7 +5495,7 @@
         <v>126</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O28" s="2">
         <v>3.17</v>
@@ -5024,8 +5515,17 @@
       <c r="U28" s="18">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V28" s="2">
+        <v>3</v>
+      </c>
+      <c r="W28" s="18">
+        <v>4.2000000000000099</v>
+      </c>
+      <c r="X28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5061,7 +5561,7 @@
         <v>127</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O29" s="2">
         <v>3.17</v>
@@ -5076,13 +5576,22 @@
         <v>2.21</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U29" s="22">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="25">
+        <v>4.2100000000000097</v>
+      </c>
+      <c r="X29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5109,7 +5618,7 @@
         <v>78</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L30" s="6">
         <v>1.27</v>
@@ -5118,7 +5627,7 @@
         <v>128</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O30" s="18">
         <v>3.1</v>
@@ -5133,18 +5642,27 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U30" s="18">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W30" s="18">
+        <v>4.2200000000000104</v>
+      </c>
+      <c r="X30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6">
         <v>1.1100000000000001</v>
@@ -5157,7 +5675,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="6">
         <v>1.17</v>
@@ -5166,7 +5684,7 @@
         <v>79</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L31" s="6">
         <v>2.15</v>
@@ -5175,7 +5693,7 @@
         <v>129</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O31" s="2">
         <v>3.13</v>
@@ -5190,18 +5708,27 @@
         <v>2.23</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U31" s="22">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="25">
+        <v>4.2300000000000102</v>
+      </c>
+      <c r="X31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6">
         <v>1.1499999999999999</v>
@@ -5214,24 +5741,29 @@
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I32" s="6">
         <v>2.23</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="7">
         <v>80</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="6">
-        <v>1.1000000000000001</v>
+        <v>183</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="M32" s="2">
         <v>130</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O32" s="18">
+        <v>3.2</v>
+      </c>
       <c r="Q32" s="9">
         <v>1.24</v>
       </c>
@@ -5242,13 +5774,22 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U32" s="18">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="2">
+        <v>2</v>
+      </c>
+      <c r="W32" s="18">
+        <v>4.24000000000001</v>
+      </c>
+      <c r="X32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -5271,7 +5812,7 @@
         <v>81</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="6">
         <v>1.22</v>
@@ -5280,7 +5821,7 @@
         <v>131</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O33" s="2">
         <v>2.27</v>
@@ -5295,13 +5836,22 @@
         <v>2.25</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U33" s="22">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="W33" s="25">
+        <v>4.2500000000000098</v>
+      </c>
+      <c r="X33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -5319,7 +5869,7 @@
         <v>32</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I34" s="6">
         <v>2.11</v>
@@ -5336,7 +5886,12 @@
       <c r="M34" s="2">
         <v>132</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="18">
+        <v>3.2</v>
+      </c>
       <c r="Q34" s="9">
         <v>1.26</v>
       </c>
@@ -5347,18 +5902,27 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U34" s="18">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="18">
+        <v>4.2600000000000096</v>
+      </c>
+      <c r="X34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="6">
         <v>1.1100000000000001</v>
@@ -5371,7 +5935,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="6">
         <v>1.1200000000000001</v>
@@ -5389,7 +5953,7 @@
         <v>133</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O35" s="2">
         <v>3.18</v>
@@ -5404,13 +5968,22 @@
         <v>2.27</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U35" s="22">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="2">
+        <v>2</v>
+      </c>
+      <c r="W35" s="25">
+        <v>4.2700000000000102</v>
+      </c>
+      <c r="X35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -5424,7 +5997,7 @@
         <v>34</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I36" s="6">
         <v>2.2200000000000002</v>
@@ -5433,7 +6006,7 @@
         <v>84</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36" s="6">
         <v>1.1100000000000001</v>
@@ -5442,7 +6015,7 @@
         <v>134</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O36" s="2">
         <v>3.12</v>
@@ -5462,13 +6035,19 @@
       <c r="U36" s="18">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="18">
+        <v>4.28000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6">
         <v>1.17</v>
@@ -5490,7 +6069,7 @@
         <v>85</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37" s="6">
         <v>1.1499999999999999</v>
@@ -5499,10 +6078,10 @@
         <v>135</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q37" s="8">
         <v>1.29</v>
@@ -5519,8 +6098,14 @@
       <c r="U37" s="22">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" s="2">
+        <v>3</v>
+      </c>
+      <c r="W37" s="25">
+        <v>4.2900000000000098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -5547,7 +6132,7 @@
         <v>86</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L38" s="6">
         <v>2.13</v>
@@ -5556,10 +6141,10 @@
         <v>136</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q38" s="9">
         <v>1.3</v>
@@ -5570,8 +6155,14 @@
       <c r="U38" s="18">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="18">
+        <v>4.3000000000000096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -5589,7 +6180,7 @@
         <v>37</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="6">
         <v>1.1299999999999999</v>
@@ -5598,7 +6189,7 @@
         <v>87</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L39" s="6">
         <v>2.2799999999999998</v>
@@ -5606,7 +6197,12 @@
       <c r="M39" s="2">
         <v>137</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3.21</v>
+      </c>
       <c r="Q39" s="8">
         <v>1.31</v>
       </c>
@@ -5616,13 +6212,16 @@
       <c r="U39" s="22">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="6">
         <v>1.1100000000000001</v>
@@ -5635,7 +6234,7 @@
         <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I40" s="6">
         <v>1.1499999999999999</v>
@@ -5644,7 +6243,7 @@
         <v>88</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L40" s="6">
         <v>1.23</v>
@@ -5653,7 +6252,7 @@
         <v>138</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O40" s="2">
         <v>3.14</v>
@@ -5661,12 +6260,12 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="6">
         <v>1.1100000000000001</v>
@@ -5679,7 +6278,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I41" s="12">
         <v>2.2000000000000002</v>
@@ -5688,7 +6287,7 @@
         <v>89</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L41" s="6">
         <v>1.17</v>
@@ -5696,16 +6295,21 @@
       <c r="M41" s="2">
         <v>139</v>
       </c>
-      <c r="N41" s="5"/>
+      <c r="N41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O41" s="2">
+        <v>3.23</v>
+      </c>
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="6">
         <v>1.18</v>
@@ -5718,7 +6322,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I42" s="12">
         <v>3.5</v>
@@ -5727,7 +6331,7 @@
         <v>90</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L42" s="6">
         <v>2.14</v>
@@ -5736,7 +6340,7 @@
         <v>140</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O42" s="18">
         <v>3.1</v>
@@ -5744,7 +6348,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -5762,7 +6366,7 @@
         <v>41</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="6">
         <v>1.1100000000000001</v>
@@ -5771,7 +6375,7 @@
         <v>91</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L43" s="6">
         <v>2.13</v>
@@ -5780,7 +6384,7 @@
         <v>141</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O43" s="2">
         <v>3.16</v>
@@ -5789,7 +6393,7 @@
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -5816,7 +6420,7 @@
         <v>92</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L44" s="6">
         <v>1.1100000000000001</v>
@@ -5824,12 +6428,17 @@
       <c r="M44" s="2">
         <v>142</v>
       </c>
-      <c r="N44" s="5"/>
+      <c r="N44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O44" s="2">
+        <v>3.22</v>
+      </c>
       <c r="P44" s="11"/>
       <c r="R44" s="11"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -5847,7 +6456,7 @@
         <v>43</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I45" s="6">
         <v>2.16</v>
@@ -5856,7 +6465,7 @@
         <v>93</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L45" s="6">
         <v>1.18</v>
@@ -5865,21 +6474,21 @@
         <v>143</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P45" s="11"/>
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="12">
         <v>2.9</v>
@@ -5892,7 +6501,7 @@
         <v>44</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" s="6">
         <v>1.1599999999999999</v>
@@ -5901,7 +6510,7 @@
         <v>94</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L46" s="6">
         <v>2.15</v>
@@ -5910,7 +6519,7 @@
         <v>144</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O46" s="2">
         <v>3.18</v>
@@ -5919,12 +6528,12 @@
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="6">
         <v>1.18</v>
@@ -5942,7 +6551,7 @@
         <v>45</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I47" s="12">
         <v>3.4</v>
@@ -5951,16 +6560,16 @@
         <v>95</v>
       </c>
       <c r="K47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="M47" s="2">
         <v>145</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O47" s="2">
         <v>2.23</v>
@@ -5969,7 +6578,7 @@
       <c r="R47" s="11"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -5993,7 +6602,7 @@
         <v>96</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L48" s="6">
         <v>1.28</v>
@@ -6002,7 +6611,7 @@
         <v>146</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O48" s="2">
         <v>2.1800000000000002</v>
@@ -6016,7 +6625,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="6">
         <v>1.1100000000000001</v>
@@ -6035,7 +6644,7 @@
         <v>97</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L49" s="6">
         <v>2.11</v>
@@ -6044,7 +6653,7 @@
         <v>147</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O49" s="2">
         <v>2.1800000000000002</v>
@@ -6067,7 +6676,7 @@
         <v>48</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" s="6">
         <v>1.1100000000000001</v>
@@ -6076,7 +6685,7 @@
         <v>98</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L50" s="6">
         <v>2.21</v>
@@ -6085,7 +6694,7 @@
         <v>148</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O50" s="2">
         <v>2.1800000000000002</v>
@@ -6098,26 +6707,26 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="6">
         <v>1.21</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="G51" s="4">
+      <c r="G51" s="7">
         <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="6">
-        <v>1.21</v>
+        <v>180</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="J51" s="2">
         <v>99</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L51" s="6">
         <v>2.19</v>
@@ -6126,7 +6735,7 @@
         <v>149</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O51" s="2">
         <v>2.14</v>
@@ -6138,7 +6747,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="12">
         <v>3.8</v>
@@ -6147,7 +6756,7 @@
         <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I52" s="6">
         <v>1.1100000000000001</v>
@@ -6156,16 +6765,16 @@
         <v>100</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M52" s="2">
         <v>150</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O52" s="2">
         <v>2.12</v>
@@ -6177,7 +6786,7 @@
         <v>151</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O53" s="2">
         <v>2.12</v>
@@ -6189,10 +6798,10 @@
         <v>152</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R54" s="11"/>
     </row>
@@ -6210,7 +6819,7 @@
         <v>153</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O55" s="10">
         <v>2.5</v>
@@ -6220,6 +6829,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="28"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6233,7 +6846,7 @@
         <v>154</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O56" s="10">
         <v>2.5</v>
@@ -6243,6 +6856,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -6256,7 +6871,7 @@
         <v>155</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O57" s="10">
         <v>2.2999999999999998</v>
@@ -6266,6 +6881,10 @@
       <c r="R57" s="11"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="24">
+        <v>1</v>
+      </c>
+      <c r="B58"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -6283,6 +6902,15 @@
       <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="24">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.29</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -6300,6 +6928,10 @@
       <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="24">
+        <v>3</v>
+      </c>
+      <c r="B60"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -6317,6 +6949,10 @@
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="24">
+        <v>4</v>
+      </c>
+      <c r="B61"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -6334,6 +6970,10 @@
       <c r="R61" s="11"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="24">
+        <v>5</v>
+      </c>
+      <c r="B62"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -6351,6 +6991,10 @@
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="24">
+        <v>6</v>
+      </c>
+      <c r="B63"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -6368,6 +7012,10 @@
       <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>7</v>
+      </c>
+      <c r="B64"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -6385,7 +7033,10 @@
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="9"/>
+      <c r="A65" s="24">
+        <v>8</v>
+      </c>
+      <c r="B65"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -6404,7 +7055,10 @@
       <c r="R65" s="11"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="9"/>
+      <c r="A66" s="24">
+        <v>9</v>
+      </c>
+      <c r="B66"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -6423,7 +7077,10 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="9"/>
+      <c r="A67" s="24">
+        <v>10</v>
+      </c>
+      <c r="B67"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -6442,7 +7099,10 @@
       <c r="R67" s="11"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
+      <c r="A68" s="24">
+        <v>11</v>
+      </c>
+      <c r="B68"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -6461,7 +7121,10 @@
       <c r="R68" s="9"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="9"/>
+      <c r="A69" s="24">
+        <v>12</v>
+      </c>
+      <c r="B69"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -6480,8 +7143,10 @@
       <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="24">
+        <v>13</v>
+      </c>
+      <c r="B70"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -6500,8 +7165,10 @@
       <c r="R70" s="9"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="24">
+        <v>14</v>
+      </c>
+      <c r="B71"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -6520,8 +7187,10 @@
       <c r="R71" s="9"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="24">
+        <v>15</v>
+      </c>
+      <c r="B72"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -6540,8 +7209,10 @@
       <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="24">
+        <v>16</v>
+      </c>
+      <c r="B73"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -6560,8 +7231,10 @@
       <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="24">
+        <v>17</v>
+      </c>
+      <c r="B74"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -6580,8 +7253,10 @@
       <c r="R74" s="9"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="24">
+        <v>18</v>
+      </c>
+      <c r="B75"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -6600,8 +7275,10 @@
       <c r="R75" s="9"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="24">
+        <v>19</v>
+      </c>
+      <c r="B76"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -6620,8 +7297,10 @@
       <c r="R76" s="9"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="24">
+        <v>20</v>
+      </c>
+      <c r="B77"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -6640,8 +7319,10 @@
       <c r="R77" s="9"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="24">
+        <v>21</v>
+      </c>
+      <c r="B78"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -6660,8 +7341,10 @@
       <c r="R78" s="9"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="24">
+        <v>22</v>
+      </c>
+      <c r="B79"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -6680,8 +7363,10 @@
       <c r="R79" s="9"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="24">
+        <v>23</v>
+      </c>
+      <c r="B80"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -6700,8 +7385,10 @@
       <c r="R80" s="9"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="24">
+        <v>24</v>
+      </c>
+      <c r="B81"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -6720,8 +7407,10 @@
       <c r="R81" s="9"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="24">
+        <v>25</v>
+      </c>
+      <c r="B82"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -6740,8 +7429,10 @@
       <c r="R82" s="9"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="24">
+        <v>26</v>
+      </c>
+      <c r="B83"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -6760,8 +7451,10 @@
       <c r="R83" s="9"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="24">
+        <v>27</v>
+      </c>
+      <c r="B84"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -6780,8 +7473,10 @@
       <c r="R84" s="9"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="24">
+        <v>28</v>
+      </c>
+      <c r="B85"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -6800,8 +7495,10 @@
       <c r="R85" s="9"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="24">
+        <v>29</v>
+      </c>
+      <c r="B86"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -6820,8 +7517,10 @@
       <c r="R86" s="9"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="24">
+        <v>30</v>
+      </c>
+      <c r="B87"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -6840,8 +7539,10 @@
       <c r="R87" s="9"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="24">
+        <v>31</v>
+      </c>
+      <c r="B88"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -6860,8 +7561,10 @@
       <c r="R88" s="9"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="24">
+        <v>32</v>
+      </c>
+      <c r="B89"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -6880,8 +7583,10 @@
       <c r="R89" s="9"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="24">
+        <v>33</v>
+      </c>
+      <c r="B90"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -6900,8 +7605,10 @@
       <c r="R90" s="9"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="24">
+        <v>34</v>
+      </c>
+      <c r="B91"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -6920,8 +7627,10 @@
       <c r="R91" s="9"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="24">
+        <v>35</v>
+      </c>
+      <c r="B92"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -6940,8 +7649,10 @@
       <c r="R92" s="9"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="24">
+        <v>36</v>
+      </c>
+      <c r="B93"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -6960,8 +7671,10 @@
       <c r="R93" s="9"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="24">
+        <v>37</v>
+      </c>
+      <c r="B94"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -6980,8 +7693,10 @@
       <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="24">
+        <v>38</v>
+      </c>
+      <c r="B95"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -7000,8 +7715,10 @@
       <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="24">
+        <v>39</v>
+      </c>
+      <c r="B96"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -7020,8 +7737,10 @@
       <c r="R96" s="9"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="24">
+        <v>40</v>
+      </c>
+      <c r="B97"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -7040,8 +7759,10 @@
       <c r="R97" s="9"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="24">
+        <v>41</v>
+      </c>
+      <c r="B98"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -7060,8 +7781,10 @@
       <c r="R98" s="9"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="24">
+        <v>42</v>
+      </c>
+      <c r="B99"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -7080,8 +7803,10 @@
       <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="24">
+        <v>43</v>
+      </c>
+      <c r="B100"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -7100,8 +7825,10 @@
       <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="24">
+        <v>44</v>
+      </c>
+      <c r="B101"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -7120,8 +7847,10 @@
       <c r="R101" s="9"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="24">
+        <v>45</v>
+      </c>
+      <c r="B102"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -7140,8 +7869,10 @@
       <c r="R102" s="9"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="24">
+        <v>46</v>
+      </c>
+      <c r="B103"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -7160,8 +7891,10 @@
       <c r="R103" s="9"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="24">
+        <v>47</v>
+      </c>
+      <c r="B104"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -7180,8 +7913,10 @@
       <c r="R104" s="9"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="24">
+        <v>48</v>
+      </c>
+      <c r="B105"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -7200,8 +7935,10 @@
       <c r="R105" s="9"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="24">
+        <v>49</v>
+      </c>
+      <c r="B106"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -7220,8 +7957,10 @@
       <c r="R106" s="9"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="24">
+        <v>50</v>
+      </c>
+      <c r="B107"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -7240,7 +7979,7 @@
       <c r="R107" s="9"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -8100,10 +8839,11 @@
       <c r="R150" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A56:B57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8113,15 +8853,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
-  <dimension ref="B4:D74"/>
+  <dimension ref="B4:E129"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8132,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -8143,7 +8883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8154,7 +8894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -8165,7 +8905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -8175,8 +8915,11 @@
       <c r="D8" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -8187,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -8198,7 +8941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -8209,7 +8952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -8220,7 +8963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -8231,7 +8974,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -8242,7 +8985,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -8253,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -8440,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
@@ -8451,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
@@ -8462,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
@@ -8473,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
@@ -8484,7 +9227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
@@ -8495,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
@@ -8506,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
@@ -8516,8 +9259,12 @@
       <c r="D39" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="27">
+        <f>SUM(D9:D39)</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
@@ -8528,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
@@ -8539,7 +9286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
@@ -8550,7 +9297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
@@ -8561,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
@@ -8572,7 +9319,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
@@ -8583,7 +9330,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>43</v>
       </c>
@@ -8594,7 +9341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>44</v>
       </c>
@@ -8605,7 +9352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>45</v>
       </c>
@@ -8792,7 +9539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>62</v>
       </c>
@@ -8803,7 +9550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>63</v>
       </c>
@@ -8814,7 +9561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>64</v>
       </c>
@@ -8825,7 +9572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>65</v>
       </c>
@@ -8835,8 +9582,12 @@
       <c r="D68" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="27">
+        <f>SUM(D40:D68)</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>66</v>
       </c>
@@ -8847,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>67</v>
       </c>
@@ -8858,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>68</v>
       </c>
@@ -8869,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>69</v>
       </c>
@@ -8880,7 +9631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>70</v>
       </c>
@@ -8891,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>71</v>
       </c>
@@ -8900,11 +9651,609 @@
       </c>
       <c r="D74" s="22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" s="23">
+        <v>3.7</v>
+      </c>
+      <c r="D75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" s="23">
+        <v>3.8</v>
+      </c>
+      <c r="D76" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77" s="23">
+        <v>3.9</v>
+      </c>
+      <c r="D77" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="D78" s="23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" s="23">
+        <v>3.11</v>
+      </c>
+      <c r="D79" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" s="18">
+        <v>3.12</v>
+      </c>
+      <c r="D80" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81" s="23">
+        <v>3.13</v>
+      </c>
+      <c r="D81" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82" s="18">
+        <v>3.14</v>
+      </c>
+      <c r="D82" s="23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83" s="23">
+        <v>3.15</v>
+      </c>
+      <c r="D83" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84" s="18">
+        <v>3.16</v>
+      </c>
+      <c r="D84" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" s="23">
+        <v>3.17</v>
+      </c>
+      <c r="D85" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86" s="18">
+        <v>3.18</v>
+      </c>
+      <c r="D86" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87" s="23">
+        <v>3.19</v>
+      </c>
+      <c r="D87" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="D88" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89" s="23">
+        <v>3.21</v>
+      </c>
+      <c r="D89" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90" s="18">
+        <v>3.22</v>
+      </c>
+      <c r="D90" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91" s="23">
+        <v>3.23</v>
+      </c>
+      <c r="D91" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92" s="18">
+        <v>3.24</v>
+      </c>
+      <c r="D92" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93" s="23">
+        <v>3.25</v>
+      </c>
+      <c r="D93" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94" s="18">
+        <v>3.26</v>
+      </c>
+      <c r="D94" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95" s="26">
+        <v>3.27</v>
+      </c>
+      <c r="D95" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96" s="18">
+        <v>3.28</v>
+      </c>
+      <c r="D96" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97" s="26">
+        <v>3.29</v>
+      </c>
+      <c r="D97" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="D98" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="C99" s="26">
+        <v>3.31</v>
+      </c>
+      <c r="D99" s="26">
+        <v>1</v>
+      </c>
+      <c r="E99" s="27">
+        <f>SUM(D69:D99)</f>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D100" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="C101" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="D101" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="C102" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="D102" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D103" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="C104" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="D104" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="C105" s="26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D105" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="C106" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="D106" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="C107" s="26">
+        <v>4.8</v>
+      </c>
+      <c r="D107" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>105</v>
+      </c>
+      <c r="C108" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D108" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D109" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="C110" s="26">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D110" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>108</v>
+      </c>
+      <c r="C111" s="18">
+        <v>4.12</v>
+      </c>
+      <c r="D111" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>109</v>
+      </c>
+      <c r="C112" s="26">
+        <v>4.13</v>
+      </c>
+      <c r="D112" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>110</v>
+      </c>
+      <c r="C113" s="18">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D113" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>111</v>
+      </c>
+      <c r="C114" s="26">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D114" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>112</v>
+      </c>
+      <c r="C115" s="18">
+        <v>4.16</v>
+      </c>
+      <c r="D115" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>113</v>
+      </c>
+      <c r="C116" s="26">
+        <v>4.17</v>
+      </c>
+      <c r="D116" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>114</v>
+      </c>
+      <c r="C117" s="18">
+        <v>4.1800000000000104</v>
+      </c>
+      <c r="D117" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>115</v>
+      </c>
+      <c r="C118" s="26">
+        <v>4.1900000000000102</v>
+      </c>
+      <c r="D118" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>116</v>
+      </c>
+      <c r="C119" s="18">
+        <v>4.2000000000000099</v>
+      </c>
+      <c r="D119" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>117</v>
+      </c>
+      <c r="C120" s="26">
+        <v>4.2100000000000097</v>
+      </c>
+      <c r="D120" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>118</v>
+      </c>
+      <c r="C121" s="18">
+        <v>4.2200000000000104</v>
+      </c>
+      <c r="D121" s="26"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>119</v>
+      </c>
+      <c r="C122" s="26">
+        <v>4.2300000000000102</v>
+      </c>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="C123" s="18">
+        <v>4.24000000000001</v>
+      </c>
+      <c r="D123" s="26"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="C124" s="26">
+        <v>4.2500000000000098</v>
+      </c>
+      <c r="D124" s="26"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>122</v>
+      </c>
+      <c r="C125" s="18">
+        <v>4.2600000000000096</v>
+      </c>
+      <c r="D125" s="26"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>123</v>
+      </c>
+      <c r="C126" s="26">
+        <v>4.2700000000000102</v>
+      </c>
+      <c r="D126" s="26"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>124</v>
+      </c>
+      <c r="C127" s="18">
+        <v>4.28000000000001</v>
+      </c>
+      <c r="D127" s="26"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>125</v>
+      </c>
+      <c r="C128" s="26">
+        <v>4.2900000000000098</v>
+      </c>
+      <c r="D128" s="26"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>126</v>
+      </c>
+      <c r="C129" s="18">
+        <v>4.3000000000000096</v>
+      </c>
+      <c r="D129" s="26"/>
+      <c r="E129">
+        <f>SUM(D100:D129)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E129" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8744DD-1F23-4577-96ED-7A9AC7C8FC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF7767-7415-4FD6-853B-9E3ED49942A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -955,10 +955,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,10 +1188,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$120</c:f>
+              <c:f>Sheet2!$D$4:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1532,6 +1541,39 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1900,10 +1942,10 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$120</c:f>
+              <c:f>Sheet2!$D$4:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="128"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2253,6 +2295,39 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3883,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X150"/>
+  <dimension ref="A1:Z150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3904,27 +3979,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3973,7 +4048,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4022,7 +4097,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4071,7 +4146,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4120,7 +4195,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4169,7 +4244,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4213,7 +4288,7 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4278,8 +4353,14 @@
       <c r="X9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4344,8 +4425,14 @@
       <c r="X10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4410,8 +4497,11 @@
       <c r="X11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="28">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4476,8 +4566,11 @@
       <c r="X12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="28">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4538,8 +4631,11 @@
       <c r="X13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4604,8 +4700,11 @@
       <c r="X14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="28">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4670,8 +4769,11 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="28">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4736,8 +4838,11 @@
       <c r="X16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="28">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4802,8 +4907,11 @@
       <c r="X17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="28">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4868,8 +4976,11 @@
       <c r="X18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="18">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4934,8 +5045,11 @@
       <c r="X19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="2">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5000,8 +5114,11 @@
       <c r="X20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="2">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5066,8 +5183,11 @@
       <c r="X21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="18">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5132,8 +5252,11 @@
       <c r="X22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="28">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5198,8 +5321,11 @@
       <c r="X23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="28">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5260,8 +5386,11 @@
       <c r="X24" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="18">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5326,8 +5455,11 @@
       <c r="X25" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="28">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5392,8 +5524,11 @@
       <c r="X26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="28">
+        <v>5.1800000000000104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5458,8 +5593,11 @@
       <c r="X27" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="18">
+        <v>5.1900000000000102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5524,8 +5662,11 @@
       <c r="X28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="28">
+        <v>5.2000000000000099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5590,8 +5731,11 @@
       <c r="X29" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="28">
+        <v>5.2100000000000097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5656,8 +5800,11 @@
       <c r="X30" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="18">
+        <v>5.2200000000000104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5722,8 +5869,11 @@
       <c r="X31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="28">
+        <v>5.2300000000000102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5788,8 +5938,11 @@
       <c r="X32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="28">
+        <v>5.24000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -5850,8 +6003,11 @@
       <c r="X33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="18">
+        <v>5.2500000000000098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -5916,8 +6072,11 @@
       <c r="X34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="28">
+        <v>5.2600000000000096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -5982,8 +6141,11 @@
       <c r="X35" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="28">
+        <v>5.2700000000000102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6041,8 +6203,14 @@
       <c r="W36" s="18">
         <v>4.28000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="18">
+        <v>5.28000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -6104,8 +6272,14 @@
       <c r="W37" s="25">
         <v>4.2900000000000098</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X37" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="28">
+        <v>5.2900000000000098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -6161,8 +6335,14 @@
       <c r="W38" s="18">
         <v>4.3000000000000096</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X38" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="28">
+        <v>5.3000000000000096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -6215,8 +6395,11 @@
       <c r="V39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="18">
+        <v>5.3100000000000103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6260,7 +6443,7 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6304,7 +6487,7 @@
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6348,7 +6531,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6393,7 +6576,7 @@
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -6438,7 +6621,7 @@
       <c r="R44" s="11"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -6483,7 +6666,7 @@
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6528,7 +6711,7 @@
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6578,7 +6761,7 @@
       <c r="R47" s="11"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -6829,10 +7012,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="29"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6856,8 +7039,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -8853,10 +9036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
-  <dimension ref="B4:E129"/>
+  <dimension ref="B4:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10170,7 +10353,9 @@
       <c r="C121" s="18">
         <v>4.2200000000000104</v>
       </c>
-      <c r="D121" s="26"/>
+      <c r="D121" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122">
@@ -10179,7 +10364,9 @@
       <c r="C122" s="26">
         <v>4.2300000000000102</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123">
@@ -10188,7 +10375,9 @@
       <c r="C123" s="18">
         <v>4.24000000000001</v>
       </c>
-      <c r="D123" s="26"/>
+      <c r="D123" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124">
@@ -10197,7 +10386,9 @@
       <c r="C124" s="26">
         <v>4.2500000000000098</v>
       </c>
-      <c r="D124" s="26"/>
+      <c r="D124" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125">
@@ -10206,7 +10397,9 @@
       <c r="C125" s="18">
         <v>4.2600000000000096</v>
       </c>
-      <c r="D125" s="26"/>
+      <c r="D125" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126">
@@ -10215,7 +10408,9 @@
       <c r="C126" s="26">
         <v>4.2700000000000102</v>
       </c>
-      <c r="D126" s="26"/>
+      <c r="D126" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127">
@@ -10224,7 +10419,9 @@
       <c r="C127" s="18">
         <v>4.28000000000001</v>
       </c>
-      <c r="D127" s="26"/>
+      <c r="D127" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128">
@@ -10233,7 +10430,9 @@
       <c r="C128" s="26">
         <v>4.2900000000000098</v>
       </c>
-      <c r="D128" s="26"/>
+      <c r="D128" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129">
@@ -10242,10 +10441,266 @@
       <c r="C129" s="18">
         <v>4.3000000000000096</v>
       </c>
-      <c r="D129" s="26"/>
+      <c r="D129" s="28">
+        <v>2</v>
+      </c>
       <c r="E129">
         <f>SUM(D100:D129)</f>
-        <v>27</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>127</v>
+      </c>
+      <c r="C130" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D130" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>128</v>
+      </c>
+      <c r="C131" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="D131" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>129</v>
+      </c>
+      <c r="C132" s="31">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>130</v>
+      </c>
+      <c r="C133" s="31">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>131</v>
+      </c>
+      <c r="C134" s="31">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>132</v>
+      </c>
+      <c r="C135" s="31">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>133</v>
+      </c>
+      <c r="C136" s="31">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>134</v>
+      </c>
+      <c r="C137" s="31">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>135</v>
+      </c>
+      <c r="C138" s="31">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>136</v>
+      </c>
+      <c r="C139" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>137</v>
+      </c>
+      <c r="C140" s="31">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>138</v>
+      </c>
+      <c r="C141" s="31">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>139</v>
+      </c>
+      <c r="C142" s="32">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>140</v>
+      </c>
+      <c r="C143" s="31">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>141</v>
+      </c>
+      <c r="C144" s="31">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>142</v>
+      </c>
+      <c r="C145" s="32">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>143</v>
+      </c>
+      <c r="C146" s="31">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>144</v>
+      </c>
+      <c r="C147" s="31">
+        <v>5.1800000000000104</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>145</v>
+      </c>
+      <c r="C148" s="32">
+        <v>5.1900000000000102</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>146</v>
+      </c>
+      <c r="C149" s="32">
+        <v>5.2000000000000099</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>147</v>
+      </c>
+      <c r="C150" s="31">
+        <v>5.2100000000000097</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>148</v>
+      </c>
+      <c r="C151" s="32">
+        <v>5.2200000000000104</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>149</v>
+      </c>
+      <c r="C152" s="31">
+        <v>5.2300000000000102</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>150</v>
+      </c>
+      <c r="C153" s="31">
+        <v>5.24000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>151</v>
+      </c>
+      <c r="C154" s="32">
+        <v>5.2500000000000098</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>152</v>
+      </c>
+      <c r="C155" s="31">
+        <v>5.2600000000000096</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>153</v>
+      </c>
+      <c r="C156" s="31">
+        <v>5.2700000000000102</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>154</v>
+      </c>
+      <c r="C157" s="32">
+        <v>5.28000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>155</v>
+      </c>
+      <c r="C158" s="31">
+        <v>5.2900000000000098</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>156</v>
+      </c>
+      <c r="C159" s="32">
+        <v>5.3000000000000096</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>157</v>
+      </c>
+      <c r="C160" s="32">
+        <v>5.3100000000000103</v>
       </c>
     </row>
   </sheetData>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF7767-7415-4FD6-853B-9E3ED49942A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0AB079-10DB-4C85-8AB0-DB587D66818B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="186">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -958,16 +958,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3960,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z150"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9:Y39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3980,24 +3980,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -4500,6 +4500,9 @@
       <c r="Y11" s="28">
         <v>5.3</v>
       </c>
+      <c r="Z11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -4568,6 +4571,9 @@
       </c>
       <c r="Y12" s="28">
         <v>5.4</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -4634,6 +4640,9 @@
       <c r="Y13" s="28">
         <v>5.5</v>
       </c>
+      <c r="Z13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -4703,6 +4712,9 @@
       <c r="Y14" s="28">
         <v>5.6</v>
       </c>
+      <c r="Z14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -4771,6 +4783,9 @@
       </c>
       <c r="Y15" s="28">
         <v>5.7</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -7012,10 +7027,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7039,8 +7054,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -9038,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
   <dimension ref="B4:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
@@ -10453,10 +10468,10 @@
       <c r="B130">
         <v>127</v>
       </c>
-      <c r="C130" s="31">
+      <c r="C130" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D130" s="31">
+      <c r="D130" s="29">
         <v>2</v>
       </c>
     </row>
@@ -10464,10 +10479,10 @@
       <c r="B131">
         <v>128</v>
       </c>
-      <c r="C131" s="31">
+      <c r="C131" s="29">
         <v>5.2</v>
       </c>
-      <c r="D131" s="31">
+      <c r="D131" s="29">
         <v>2</v>
       </c>
     </row>
@@ -10475,7 +10490,7 @@
       <c r="B132">
         <v>129</v>
       </c>
-      <c r="C132" s="31">
+      <c r="C132" s="29">
         <v>5.3</v>
       </c>
     </row>
@@ -10483,7 +10498,7 @@
       <c r="B133">
         <v>130</v>
       </c>
-      <c r="C133" s="31">
+      <c r="C133" s="29">
         <v>5.4</v>
       </c>
     </row>
@@ -10491,7 +10506,7 @@
       <c r="B134">
         <v>131</v>
       </c>
-      <c r="C134" s="31">
+      <c r="C134" s="29">
         <v>5.5</v>
       </c>
     </row>
@@ -10499,7 +10514,7 @@
       <c r="B135">
         <v>132</v>
       </c>
-      <c r="C135" s="31">
+      <c r="C135" s="29">
         <v>5.6</v>
       </c>
     </row>
@@ -10507,7 +10522,7 @@
       <c r="B136">
         <v>133</v>
       </c>
-      <c r="C136" s="31">
+      <c r="C136" s="29">
         <v>5.7</v>
       </c>
     </row>
@@ -10515,7 +10530,7 @@
       <c r="B137">
         <v>134</v>
       </c>
-      <c r="C137" s="31">
+      <c r="C137" s="29">
         <v>5.8</v>
       </c>
     </row>
@@ -10523,7 +10538,7 @@
       <c r="B138">
         <v>135</v>
       </c>
-      <c r="C138" s="31">
+      <c r="C138" s="29">
         <v>5.9</v>
       </c>
     </row>
@@ -10531,7 +10546,7 @@
       <c r="B139">
         <v>136</v>
       </c>
-      <c r="C139" s="32">
+      <c r="C139" s="30">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -10539,7 +10554,7 @@
       <c r="B140">
         <v>137</v>
       </c>
-      <c r="C140" s="31">
+      <c r="C140" s="29">
         <v>5.1100000000000003</v>
       </c>
     </row>
@@ -10547,7 +10562,7 @@
       <c r="B141">
         <v>138</v>
       </c>
-      <c r="C141" s="31">
+      <c r="C141" s="29">
         <v>5.12</v>
       </c>
     </row>
@@ -10555,7 +10570,7 @@
       <c r="B142">
         <v>139</v>
       </c>
-      <c r="C142" s="32">
+      <c r="C142" s="30">
         <v>5.13</v>
       </c>
     </row>
@@ -10563,7 +10578,7 @@
       <c r="B143">
         <v>140</v>
       </c>
-      <c r="C143" s="31">
+      <c r="C143" s="29">
         <v>5.14</v>
       </c>
     </row>
@@ -10571,7 +10586,7 @@
       <c r="B144">
         <v>141</v>
       </c>
-      <c r="C144" s="31">
+      <c r="C144" s="29">
         <v>5.15</v>
       </c>
     </row>
@@ -10579,7 +10594,7 @@
       <c r="B145">
         <v>142</v>
       </c>
-      <c r="C145" s="32">
+      <c r="C145" s="30">
         <v>5.16</v>
       </c>
     </row>
@@ -10587,7 +10602,7 @@
       <c r="B146">
         <v>143</v>
       </c>
-      <c r="C146" s="31">
+      <c r="C146" s="29">
         <v>5.17</v>
       </c>
     </row>
@@ -10595,7 +10610,7 @@
       <c r="B147">
         <v>144</v>
       </c>
-      <c r="C147" s="31">
+      <c r="C147" s="29">
         <v>5.1800000000000104</v>
       </c>
     </row>
@@ -10603,7 +10618,7 @@
       <c r="B148">
         <v>145</v>
       </c>
-      <c r="C148" s="32">
+      <c r="C148" s="30">
         <v>5.1900000000000102</v>
       </c>
     </row>
@@ -10611,7 +10626,7 @@
       <c r="B149">
         <v>146</v>
       </c>
-      <c r="C149" s="32">
+      <c r="C149" s="30">
         <v>5.2000000000000099</v>
       </c>
     </row>
@@ -10619,7 +10634,7 @@
       <c r="B150">
         <v>147</v>
       </c>
-      <c r="C150" s="31">
+      <c r="C150" s="29">
         <v>5.2100000000000097</v>
       </c>
     </row>
@@ -10627,7 +10642,7 @@
       <c r="B151">
         <v>148</v>
       </c>
-      <c r="C151" s="32">
+      <c r="C151" s="30">
         <v>5.2200000000000104</v>
       </c>
     </row>
@@ -10635,7 +10650,7 @@
       <c r="B152">
         <v>149</v>
       </c>
-      <c r="C152" s="31">
+      <c r="C152" s="29">
         <v>5.2300000000000102</v>
       </c>
     </row>
@@ -10643,7 +10658,7 @@
       <c r="B153">
         <v>150</v>
       </c>
-      <c r="C153" s="31">
+      <c r="C153" s="29">
         <v>5.24000000000001</v>
       </c>
     </row>
@@ -10651,7 +10666,7 @@
       <c r="B154">
         <v>151</v>
       </c>
-      <c r="C154" s="32">
+      <c r="C154" s="30">
         <v>5.2500000000000098</v>
       </c>
     </row>
@@ -10659,7 +10674,7 @@
       <c r="B155">
         <v>152</v>
       </c>
-      <c r="C155" s="31">
+      <c r="C155" s="29">
         <v>5.2600000000000096</v>
       </c>
     </row>
@@ -10667,7 +10682,7 @@
       <c r="B156">
         <v>153</v>
       </c>
-      <c r="C156" s="31">
+      <c r="C156" s="29">
         <v>5.2700000000000102</v>
       </c>
     </row>
@@ -10675,7 +10690,7 @@
       <c r="B157">
         <v>154</v>
       </c>
-      <c r="C157" s="32">
+      <c r="C157" s="30">
         <v>5.28000000000001</v>
       </c>
     </row>
@@ -10683,7 +10698,7 @@
       <c r="B158">
         <v>155</v>
       </c>
-      <c r="C158" s="31">
+      <c r="C158" s="29">
         <v>5.2900000000000098</v>
       </c>
     </row>
@@ -10691,7 +10706,7 @@
       <c r="B159">
         <v>156</v>
       </c>
-      <c r="C159" s="32">
+      <c r="C159" s="30">
         <v>5.3000000000000096</v>
       </c>
     </row>
@@ -10699,7 +10714,7 @@
       <c r="B160">
         <v>157</v>
       </c>
-      <c r="C160" s="32">
+      <c r="C160" s="30">
         <v>5.3100000000000103</v>
       </c>
     </row>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0AB079-10DB-4C85-8AB0-DB587D66818B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E014B-3D5C-4B1D-BB39-610BE2948E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -962,6 +962,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3958,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z150"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3979,27 +3988,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4048,7 +4057,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4097,7 +4106,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4146,7 +4155,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4195,7 +4204,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4244,7 +4253,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4288,7 +4297,7 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4359,8 +4368,14 @@
       <c r="Z9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4431,8 +4446,14 @@
       <c r="Z10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4503,8 +4524,14 @@
       <c r="Z11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4575,8 +4602,14 @@
       <c r="Z12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AB12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4643,8 +4676,14 @@
       <c r="Z13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AB13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4715,8 +4754,14 @@
       <c r="Z14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="33">
+        <v>6.6</v>
+      </c>
+      <c r="AB14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4787,8 +4832,14 @@
       <c r="Z15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="33">
+        <v>6.7</v>
+      </c>
+      <c r="AB15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4856,8 +4907,14 @@
       <c r="Y16" s="28">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4925,8 +4982,14 @@
       <c r="Y17" s="28">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="33">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4994,8 +5057,14 @@
       <c r="Y18" s="18">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5063,8 +5132,14 @@
       <c r="Y19" s="2">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5132,8 +5207,14 @@
       <c r="Y20" s="2">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="30">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5201,8 +5282,14 @@
       <c r="Y21" s="18">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5270,8 +5357,14 @@
       <c r="Y22" s="28">
         <v>5.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="30">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5339,8 +5432,14 @@
       <c r="Y23" s="28">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="33">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5404,8 +5503,14 @@
       <c r="Y24" s="18">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="30">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5473,8 +5578,14 @@
       <c r="Y25" s="28">
         <v>5.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="33">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5542,8 +5653,14 @@
       <c r="Y26" s="28">
         <v>5.1800000000000104</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="30">
+        <v>6.1800000000000104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5611,8 +5728,14 @@
       <c r="Y27" s="18">
         <v>5.1900000000000102</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="33">
+        <v>6.1900000000000102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5677,11 +5800,17 @@
       <c r="X28" s="2">
         <v>2</v>
       </c>
-      <c r="Y28" s="28">
+      <c r="Y28" s="30">
         <v>5.2000000000000099</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="30">
+        <v>6.2000000000000099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5749,8 +5878,14 @@
       <c r="Y29" s="28">
         <v>5.2100000000000097</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="30">
+        <v>6.2100000000000097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5818,8 +5953,14 @@
       <c r="Y30" s="18">
         <v>5.2200000000000104</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="33">
+        <v>6.2200000000000104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -5887,8 +6028,14 @@
       <c r="Y31" s="28">
         <v>5.2300000000000102</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="30">
+        <v>6.2300000000000102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -5956,8 +6103,14 @@
       <c r="Y32" s="28">
         <v>5.24000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>6.24000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6021,8 +6174,14 @@
       <c r="Y33" s="18">
         <v>5.2500000000000098</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="30">
+        <v>6.2500000000000098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6090,8 +6249,14 @@
       <c r="Y34" s="28">
         <v>5.2600000000000096</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="33">
+        <v>6.2600000000000096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6159,8 +6324,14 @@
       <c r="Y35" s="28">
         <v>5.2700000000000102</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="30">
+        <v>6.2700000000000102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6224,8 +6395,14 @@
       <c r="Y36" s="18">
         <v>5.28000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AA36" s="33">
+        <v>6.28000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -6293,8 +6470,14 @@
       <c r="Y37" s="28">
         <v>5.2900000000000098</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AA37" s="30">
+        <v>6.2900000000000098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -6353,11 +6536,17 @@
       <c r="X38" s="2">
         <v>2</v>
       </c>
-      <c r="Y38" s="28">
+      <c r="Y38" s="30">
         <v>5.3000000000000096</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="30">
+        <v>6.3000000000000096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -6413,8 +6602,11 @@
       <c r="Y39" s="18">
         <v>5.3100000000000103</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6458,7 +6650,7 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6502,7 +6694,7 @@
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6546,7 +6738,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6591,7 +6783,7 @@
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -6636,7 +6828,7 @@
       <c r="R44" s="11"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -6681,7 +6873,7 @@
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6726,7 +6918,7 @@
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6776,7 +6968,7 @@
       <c r="R47" s="11"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -7027,10 +7219,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="31"/>
+      <c r="B56" s="34"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7054,8 +7246,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -9051,14 +9243,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
-  <dimension ref="B4:E160"/>
+  <dimension ref="B3:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>SUM(E4:E314)</f>
+        <v>268.5</v>
+      </c>
+    </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
@@ -10471,7 +10669,7 @@
       <c r="C130" s="29">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D130" s="29">
+      <c r="D130" s="31">
         <v>2</v>
       </c>
     </row>
@@ -10482,7 +10680,7 @@
       <c r="C131" s="29">
         <v>5.2</v>
       </c>
-      <c r="D131" s="29">
+      <c r="D131" s="31">
         <v>2</v>
       </c>
     </row>
@@ -10493,6 +10691,9 @@
       <c r="C132" s="29">
         <v>5.3</v>
       </c>
+      <c r="D132" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133">
@@ -10501,6 +10702,9 @@
       <c r="C133" s="29">
         <v>5.4</v>
       </c>
+      <c r="D133" s="31">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134">
@@ -10509,6 +10713,9 @@
       <c r="C134" s="29">
         <v>5.5</v>
       </c>
+      <c r="D134" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135">
@@ -10517,6 +10724,9 @@
       <c r="C135" s="29">
         <v>5.6</v>
       </c>
+      <c r="D135" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136">
@@ -10525,6 +10735,9 @@
       <c r="C136" s="29">
         <v>5.7</v>
       </c>
+      <c r="D136" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137">
@@ -10533,6 +10746,9 @@
       <c r="C137" s="29">
         <v>5.8</v>
       </c>
+      <c r="D137" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138">
@@ -10541,6 +10757,9 @@
       <c r="C138" s="29">
         <v>5.9</v>
       </c>
+      <c r="D138" s="32">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139">
@@ -10549,6 +10768,9 @@
       <c r="C139" s="30">
         <v>5.0999999999999996</v>
       </c>
+      <c r="D139" s="32">
+        <v>2</v>
+      </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140">
@@ -10721,9 +10943,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E129" formulaRange="1"/>
+    <ignoredError sqref="E129 E39 E68 E99" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E014B-3D5C-4B1D-BB39-610BE2948E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389F4CF-FF60-4074-AFEF-3057FFE0D0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -962,6 +962,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3967,10 +3970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AD150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3988,27 +3991,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="D2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4057,7 +4060,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4106,7 +4109,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4155,7 +4158,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4204,7 +4207,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4253,7 +4256,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4297,7 +4300,7 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4374,8 +4377,14 @@
       <c r="AB9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4452,8 +4461,14 @@
       <c r="AB10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4530,8 +4545,14 @@
       <c r="AB11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4608,8 +4629,14 @@
       <c r="AB12" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4682,8 +4709,14 @@
       <c r="AB13" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4760,8 +4793,14 @@
       <c r="AB14" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="34">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4838,8 +4877,11 @@
       <c r="AB15" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="34">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4913,8 +4955,14 @@
       <c r="AA16" s="33">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="34">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4988,8 +5036,14 @@
       <c r="AA17" s="33">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="34">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5063,8 +5117,14 @@
       <c r="AA18" s="30">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5138,8 +5198,14 @@
       <c r="AA19" s="2">
         <v>6.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5213,8 +5279,14 @@
       <c r="AA20" s="30">
         <v>6.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="30">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5288,8 +5360,14 @@
       <c r="AA21" s="33">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="34">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5363,8 +5441,14 @@
       <c r="AA22" s="30">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="30">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5438,8 +5522,14 @@
       <c r="AA23" s="33">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="34">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5509,8 +5599,14 @@
       <c r="AA24" s="30">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="30">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5584,8 +5680,14 @@
       <c r="AA25" s="33">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="34">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5659,8 +5761,14 @@
       <c r="AA26" s="30">
         <v>6.1800000000000104</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="30">
+        <v>7.1800000000000104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5734,8 +5842,14 @@
       <c r="AA27" s="33">
         <v>6.1900000000000102</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="34">
+        <v>7.1900000000000102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5809,8 +5923,14 @@
       <c r="AA28" s="30">
         <v>6.2000000000000099</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="30">
+        <v>7.2000000000000099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -5884,8 +6004,14 @@
       <c r="AA29" s="30">
         <v>6.2100000000000097</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="34">
+        <v>7.2100000000000097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -5959,8 +6085,14 @@
       <c r="AA30" s="33">
         <v>6.2200000000000104</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="30">
+        <v>7.2200000000000104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -6034,8 +6166,14 @@
       <c r="AA31" s="30">
         <v>6.2300000000000102</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="34">
+        <v>7.2300000000000102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -6109,8 +6247,14 @@
       <c r="AA32" s="33">
         <v>6.24000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="30">
+        <v>7.24000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6180,8 +6324,14 @@
       <c r="AA33" s="30">
         <v>6.2500000000000098</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="34">
+        <v>7.2500000000000098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6255,8 +6405,14 @@
       <c r="AA34" s="33">
         <v>6.2600000000000096</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="30">
+        <v>7.2600000000000096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6330,8 +6486,14 @@
       <c r="AA35" s="30">
         <v>6.2700000000000102</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="34">
+        <v>7.2700000000000102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6401,8 +6563,14 @@
       <c r="AA36" s="33">
         <v>6.28000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="30">
+        <v>7.28000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -6476,8 +6644,14 @@
       <c r="AA37" s="30">
         <v>6.2900000000000098</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="34">
+        <v>7.2900000000000098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -6545,8 +6719,14 @@
       <c r="AA38" s="30">
         <v>6.3000000000000096</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="34">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="30">
+        <v>7.3000000000000096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -6605,8 +6785,11 @@
       <c r="Z39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC39" s="34">
+        <v>7.3100000000000103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6650,7 +6833,7 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6694,7 +6877,7 @@
       <c r="P41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6738,7 +6921,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6783,7 +6966,7 @@
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -6828,7 +7011,7 @@
       <c r="R44" s="11"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -6873,7 +7056,7 @@
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6918,7 +7101,7 @@
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6968,7 +7151,7 @@
       <c r="R47" s="11"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -7219,10 +7402,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="35"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7246,8 +7429,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389F4CF-FF60-4074-AFEF-3057FFE0D0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7BD1AD-EA17-42B3-A28D-89D8EB6A4643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="187">
   <si>
     <t>Basic Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,6 +768,10 @@
   </si>
   <si>
     <t>DONE;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -962,6 +960,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3970,10 +3971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD150"/>
+  <dimension ref="A1:AF150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF41" sqref="AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3991,27 +3992,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="G1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="G1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4060,7 +4061,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4109,7 +4110,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4158,7 +4159,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4207,7 +4208,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4254,9 +4255,12 @@
       <c r="R7" s="11">
         <v>5</v>
       </c>
+      <c r="S7" s="2">
+        <v>24</v>
+      </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4300,7 +4304,7 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4383,8 +4387,14 @@
       <c r="AD9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4467,8 +4477,14 @@
       <c r="AD10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF10" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4551,8 +4567,14 @@
       <c r="AD11" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="35">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF11" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4635,8 +4657,14 @@
       <c r="AD12" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="35">
+        <v>8.4</v>
+      </c>
+      <c r="AF12" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4715,8 +4743,14 @@
       <c r="AD13" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="35">
+        <v>8.5</v>
+      </c>
+      <c r="AF13" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4799,8 +4833,14 @@
       <c r="AD14" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="35">
+        <v>8.6</v>
+      </c>
+      <c r="AF14" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4880,8 +4920,17 @@
       <c r="AC15" s="34">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="35">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF15" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4961,8 +5010,17 @@
       <c r="AC16" s="34">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF16" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5042,8 +5100,17 @@
       <c r="AC17" s="34">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="35">
+        <v>8.9</v>
+      </c>
+      <c r="AF17" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5123,8 +5190,17 @@
       <c r="AC18" s="30">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>8.1</v>
+      </c>
+      <c r="AF18" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5204,8 +5280,17 @@
       <c r="AC19" s="2">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="AF19" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5285,8 +5370,17 @@
       <c r="AC20" s="30">
         <v>7.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="30">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="AF20" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5366,8 +5460,17 @@
       <c r="AC21" s="34">
         <v>7.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="35">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AF21" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5447,8 +5550,17 @@
       <c r="AC22" s="30">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="30">
+        <v>8.14</v>
+      </c>
+      <c r="AF22" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5528,8 +5640,17 @@
       <c r="AC23" s="34">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="35">
+        <v>8.15</v>
+      </c>
+      <c r="AF23" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5605,8 +5726,17 @@
       <c r="AC24" s="30">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="30">
+        <v>8.16</v>
+      </c>
+      <c r="AF24" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5686,8 +5816,17 @@
       <c r="AC25" s="34">
         <v>7.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="35">
+        <v>8.17</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5767,8 +5906,14 @@
       <c r="AC26" s="30">
         <v>7.1800000000000104</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="30">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5848,8 +5993,14 @@
       <c r="AC27" s="34">
         <v>7.1900000000000102</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="35">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -5929,8 +6080,14 @@
       <c r="AC28" s="30">
         <v>7.2000000000000099</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="30">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6010,8 +6167,14 @@
       <c r="AC29" s="34">
         <v>7.2100000000000097</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="35">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6091,8 +6254,14 @@
       <c r="AC30" s="30">
         <v>7.2200000000000104</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="30">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -6172,8 +6341,14 @@
       <c r="AC31" s="34">
         <v>7.2300000000000102</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="35">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -6253,8 +6428,14 @@
       <c r="AC32" s="30">
         <v>7.24000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="30">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6330,8 +6511,14 @@
       <c r="AC33" s="34">
         <v>7.2500000000000098</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="35">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6411,8 +6598,14 @@
       <c r="AC34" s="30">
         <v>7.2600000000000096</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="30">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6492,8 +6685,14 @@
       <c r="AC35" s="34">
         <v>7.2700000000000102</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="35">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6569,8 +6768,14 @@
       <c r="AC36" s="30">
         <v>7.28000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD36" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="30">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -6650,8 +6855,14 @@
       <c r="AC37" s="34">
         <v>7.2900000000000098</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="35">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -6725,8 +6936,14 @@
       <c r="AC38" s="30">
         <v>7.3000000000000096</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="30">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -6788,8 +7005,14 @@
       <c r="AC39" s="34">
         <v>7.3100000000000103</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="35">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6833,7 +7056,7 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6875,9 +7098,34 @@
         <v>3.23</v>
       </c>
       <c r="P41" s="11"/>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R41" s="11">
+        <f>SUM(R9:R39)</f>
+        <v>70.5</v>
+      </c>
+      <c r="T41" s="11">
+        <v>73</v>
+      </c>
+      <c r="V41" s="2">
+        <v>59</v>
+      </c>
+      <c r="X41" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z41" s="2">
+        <f>SUM(Z9:Z39)</f>
+        <v>51</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6921,7 +7169,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6966,7 +7214,7 @@
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -7011,7 +7259,7 @@
       <c r="R44" s="11"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -7056,7 +7304,7 @@
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -7101,7 +7349,7 @@
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -7151,7 +7399,7 @@
       <c r="R47" s="11"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -7402,10 +7650,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="36"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7429,8 +7677,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -9428,8 +9676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
   <dimension ref="B3:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/PAT做题情况.xlsx
+++ b/PAT做题情况.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\c++\PAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7BD1AD-EA17-42B3-A28D-89D8EB6A4643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0B4BB0-97FE-412D-9783-08C114A9C5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,6 +960,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3971,10 +3974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF150"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AO150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF41" sqref="AF41"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL42" sqref="AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3992,27 +3996,27 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="G1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="G1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="D2" s="38"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4061,7 +4065,7 @@
       </c>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4110,7 +4114,7 @@
       </c>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4159,7 +4163,7 @@
       </c>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4208,7 +4212,7 @@
       </c>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4260,7 +4264,7 @@
       </c>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4304,7 +4308,7 @@
       <c r="R8" s="11"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -4393,8 +4397,29 @@
       <c r="AF9" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="AH9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="AJ9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4483,8 +4508,29 @@
       <c r="AF10" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AH10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AJ10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="AL10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4573,8 +4619,29 @@
       <c r="AF11" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="36">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AH11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="36">
+        <v>10.3</v>
+      </c>
+      <c r="AJ11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="36">
+        <v>11.3</v>
+      </c>
+      <c r="AL11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="36">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4663,8 +4730,29 @@
       <c r="AF12" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG12" s="36">
+        <v>9.4</v>
+      </c>
+      <c r="AH12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="36">
+        <v>10.4</v>
+      </c>
+      <c r="AJ12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="36">
+        <v>11.4</v>
+      </c>
+      <c r="AL12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="36">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4749,8 +4837,29 @@
       <c r="AF13" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="36">
+        <v>9.5</v>
+      </c>
+      <c r="AH13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="36">
+        <v>10.5</v>
+      </c>
+      <c r="AJ13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="36">
+        <v>11.5</v>
+      </c>
+      <c r="AL13" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="36">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4839,8 +4948,29 @@
       <c r="AF14" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="36">
+        <v>9.6</v>
+      </c>
+      <c r="AH14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="36">
+        <v>10.6</v>
+      </c>
+      <c r="AJ14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="36">
+        <v>11.6</v>
+      </c>
+      <c r="AL14" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="36">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4929,8 +5059,29 @@
       <c r="AF15" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="36">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AH15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="36">
+        <v>10.7</v>
+      </c>
+      <c r="AJ15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="36">
+        <v>11.7</v>
+      </c>
+      <c r="AL15" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="36">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5019,8 +5170,29 @@
       <c r="AF16" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="36">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AH16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="36">
+        <v>10.8</v>
+      </c>
+      <c r="AJ16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="36">
+        <v>11.8</v>
+      </c>
+      <c r="AL16" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="36">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5109,8 +5281,29 @@
       <c r="AF17" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG17" s="36">
+        <v>9.9</v>
+      </c>
+      <c r="AH17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="36">
+        <v>10.9</v>
+      </c>
+      <c r="AJ17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="36">
+        <v>11.9</v>
+      </c>
+      <c r="AL17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="36">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5199,8 +5392,29 @@
       <c r="AF18" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG18" s="30">
+        <v>9.1</v>
+      </c>
+      <c r="AH18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="30">
+        <v>10.1</v>
+      </c>
+      <c r="AJ18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>11.1</v>
+      </c>
+      <c r="AL18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="30">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5289,8 +5503,27 @@
       <c r="AF19" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="30">
+        <v>9.11</v>
+      </c>
+      <c r="AH19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="30">
+        <v>10.11</v>
+      </c>
+      <c r="AJ19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>11.11</v>
+      </c>
+      <c r="AL19"/>
+      <c r="AM19" s="2">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5379,8 +5612,27 @@
       <c r="AF20" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG20" s="30">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="AH20" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="30">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AJ20" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="30">
+        <v>11.12</v>
+      </c>
+      <c r="AL20"/>
+      <c r="AM20" s="30">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5469,8 +5721,27 @@
       <c r="AF21" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="30">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AH21" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="30">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AJ21" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="36">
+        <v>11.13</v>
+      </c>
+      <c r="AL21"/>
+      <c r="AM21" s="36">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5559,8 +5830,27 @@
       <c r="AF22" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="30">
+        <v>9.14</v>
+      </c>
+      <c r="AH22" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="30">
+        <v>10.14</v>
+      </c>
+      <c r="AJ22" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="30">
+        <v>11.14</v>
+      </c>
+      <c r="AL22"/>
+      <c r="AM22" s="30">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5649,8 +5939,27 @@
       <c r="AF23" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG23" s="30">
+        <v>9.15</v>
+      </c>
+      <c r="AH23" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="30">
+        <v>10.15</v>
+      </c>
+      <c r="AJ23" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="36">
+        <v>11.15</v>
+      </c>
+      <c r="AL23"/>
+      <c r="AM23" s="36">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5735,8 +6044,27 @@
       <c r="AF24" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="30">
+        <v>9.16</v>
+      </c>
+      <c r="AH24" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="30">
+        <v>10.16</v>
+      </c>
+      <c r="AJ24" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="30">
+        <v>11.16</v>
+      </c>
+      <c r="AL24"/>
+      <c r="AM24" s="30">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5825,8 +6153,27 @@
       <c r="AF25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="30">
+        <v>9.17</v>
+      </c>
+      <c r="AH25" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="30">
+        <v>10.17</v>
+      </c>
+      <c r="AJ25" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="36">
+        <v>11.17</v>
+      </c>
+      <c r="AL25"/>
+      <c r="AM25" s="36">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -5912,8 +6259,30 @@
       <c r="AE26" s="30">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF26" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="30">
+        <v>9.18</v>
+      </c>
+      <c r="AH26" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="30">
+        <v>10.18</v>
+      </c>
+      <c r="AJ26" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="30">
+        <v>11.18</v>
+      </c>
+      <c r="AL26"/>
+      <c r="AM26" s="30">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5999,8 +6368,30 @@
       <c r="AE27" s="35">
         <v>8.19</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF27" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="30">
+        <v>9.19</v>
+      </c>
+      <c r="AH27" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="30">
+        <v>10.19</v>
+      </c>
+      <c r="AJ27" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="36">
+        <v>11.19</v>
+      </c>
+      <c r="AL27"/>
+      <c r="AM27" s="36">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -6086,8 +6477,30 @@
       <c r="AE28" s="30">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF28" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AH28" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AJ28" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="30">
+        <v>11.2</v>
+      </c>
+      <c r="AL28"/>
+      <c r="AM28" s="30">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6173,8 +6586,30 @@
       <c r="AE29" s="35">
         <v>8.2100000000000009</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF29" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="30">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AH29" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="30">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="AJ29" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="36">
+        <v>11.21</v>
+      </c>
+      <c r="AL29"/>
+      <c r="AM29" s="36">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6260,8 +6695,30 @@
       <c r="AE30" s="30">
         <v>8.2200000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="30">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="AH30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="30">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AJ30" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="30">
+        <v>11.22</v>
+      </c>
+      <c r="AL30"/>
+      <c r="AM30" s="30">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -6347,8 +6804,30 @@
       <c r="AE31" s="35">
         <v>8.23</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF31" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="30">
+        <v>9.23</v>
+      </c>
+      <c r="AH31" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="30">
+        <v>10.23</v>
+      </c>
+      <c r="AJ31" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="36">
+        <v>11.23</v>
+      </c>
+      <c r="AL31"/>
+      <c r="AM31" s="36">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -6434,8 +6913,30 @@
       <c r="AE32" s="30">
         <v>8.24</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="30">
+        <v>9.24</v>
+      </c>
+      <c r="AH32" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="30">
+        <v>10.24</v>
+      </c>
+      <c r="AJ32" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="30">
+        <v>11.24</v>
+      </c>
+      <c r="AL32"/>
+      <c r="AM32" s="30">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6517,8 +7018,30 @@
       <c r="AE33" s="35">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="30">
+        <v>9.25</v>
+      </c>
+      <c r="AH33" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="30">
+        <v>10.25</v>
+      </c>
+      <c r="AJ33" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="36">
+        <v>11.25</v>
+      </c>
+      <c r="AL33"/>
+      <c r="AM33" s="36">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6604,8 +7127,30 @@
       <c r="AE34" s="30">
         <v>8.26</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="30">
+        <v>9.26</v>
+      </c>
+      <c r="AH34" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="30">
+        <v>10.26</v>
+      </c>
+      <c r="AJ34" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="30">
+        <v>11.26</v>
+      </c>
+      <c r="AL34"/>
+      <c r="AM34" s="30">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6691,8 +7236,30 @@
       <c r="AE35" s="35">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="30">
+        <v>9.27</v>
+      </c>
+      <c r="AH35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="30">
+        <v>10.27</v>
+      </c>
+      <c r="AJ35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="36">
+        <v>11.27</v>
+      </c>
+      <c r="AL35"/>
+      <c r="AM35" s="36">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6774,8 +7341,30 @@
       <c r="AE36" s="30">
         <v>8.2799999999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF36" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="30">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AH36" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="30">
+        <v>10.28</v>
+      </c>
+      <c r="AJ36" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="30">
+        <v>11.28</v>
+      </c>
+      <c r="AL36"/>
+      <c r="AM36" s="30">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -6861,8 +7450,30 @@
       <c r="AE37" s="35">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="30">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="AH37" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="30">
+        <v>10.29</v>
+      </c>
+      <c r="AJ37" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="36">
+        <v>11.29</v>
+      </c>
+      <c r="AL37"/>
+      <c r="AM37" s="36">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -6942,8 +7553,30 @@
       <c r="AE38" s="30">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="30">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AH38" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="30">
+        <v>10.3</v>
+      </c>
+      <c r="AJ38" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="30">
+        <v>11.3</v>
+      </c>
+      <c r="AL38"/>
+      <c r="AM38" s="30">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -7011,8 +7644,17 @@
       <c r="AE39" s="35">
         <v>8.31</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="36">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="30">
+        <v>10.31</v>
+      </c>
+      <c r="AM39" s="36">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -7056,7 +7698,7 @@
       <c r="P40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -7124,8 +7766,24 @@
       <c r="AD41" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>30</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>31</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO41" s="11">
+        <f>SUM(R41:AN41)</f>
+        <v>459.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -7169,7 +7827,7 @@
       <c r="P42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -7214,7 +7872,7 @@
       <c r="R43" s="11"/>
       <c r="T43" s="20"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -7259,7 +7917,7 @@
       <c r="R44" s="11"/>
       <c r="T44" s="20"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -7304,7 +7962,7 @@
       <c r="R45" s="11"/>
       <c r="T45" s="20"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -7349,7 +8007,7 @@
       <c r="R46" s="11"/>
       <c r="T46" s="20"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -7399,7 +8057,7 @@
       <c r="R47" s="11"/>
       <c r="T47" s="20"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -7650,10 +8308,10 @@
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="37"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7677,8 +8335,8 @@
       <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -9674,9 +10332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F868F-A7B8-42B2-9E84-5FE232FEF3A1}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
